--- a/Database.xlsx
+++ b/Database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Fantasy_Baseline_Stats" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,9 +13,10 @@
     <sheet name="Factions" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Weapons" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Relations" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Abilities" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="358">
   <si>
     <t xml:space="preserve">M</t>
   </si>
@@ -858,6 +859,254 @@
   </si>
   <si>
     <t xml:space="preserve">Monstrous Cavalry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scaley Skin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A model with Scaley skin is equipped with the scaley skin armour variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size Matters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Models with this special rule treat Goblins as having the "Hot-Headed" special rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Model add 1 to its Cool characteristic for each friendly model with this ability within 3"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When an enemy model moves into engagement range with a friendly model within 6"  this model, and this model is standing and active, this model may make immediate, out of sequence Charge action against that enemy model once it has completed its Charge Action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Models with the Peasant's Duty may use the cool characteristic of any friendly models with the Questing Vow or the Grail Vow within 6"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When an enemy model moves into engagement range with a friendly model within 6"  this model, and this model is standing and active, this model may make immediate, out of sequence Shooting action against that enemy model. This attack does not cause pinning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Fighter and friendly Fighters within 3" of this model may roll 3 dice and pick the highest 2 results when taking any Cool checks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Models with this ability get +1 Strength in the first round of close combat and cannot benefit from the parry rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If a model with this ability is taken out of action in Close Combat, it will immediately make a single Attack back against the model that took it out of acction before being removed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This model re-rolls all to hit rolls of 1 when using handguns, pistols and crossbows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two handed weapons used by a model with this ability gain the Parry ability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This model re-rolls 1's when rolling to hit in close combat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This model re-rolls 1's when rolling to wound in close combat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enemies attacking models with this rule suffer -1 To Hit in close combat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Model gains +1 Weapon Skill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Model automatically passes any cool checks it is required to make</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issue Challenge Basic Action - Choose an enemy fighter within 12". Until the end of this round, or until the chosen fighter is attacked by a friendly fighter, they must make a Intelligence check if they wish to make a ranged or close combat attack that targets any fighter other than the fighter who issued the challenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This model counts as passing its first failed cool check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If this fighter should be set up at the start of a battle, they may instead placed to one side. Then, immediately before the start of the first round, their controlling player may set them up anywhere on the battlefield that is not visible to any enemy fighters, and not within 6’’ of any of them. If both players have fighters with this skill, take turns to set one up, starting with the winner of a roll-off.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crushing Blow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before rolling to hit for the fighter's close combat attacks, the controlling player can nominate one dice to make a Crushing Blow. If that dice hits, the attack’s Strength and Damage are each increased by one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6+ Ward vs Close Combat weapons when on foot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6+ Ward vs Ranged weapons when on foot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Will</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subtract 1 from the result of any Bottle rolls whilst this fighter is on the battlefield and is not Seriously Injured.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This model gains +1 Attack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This model gains +1 Toughness and -2 Initiative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Model with this ability gets +1 to any wound rolls made in close combat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Model gains +1 Movement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Model gets +1 Attack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Model gains +1 Strength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True Grit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When making an Injury roll for the fighter, roll one less Injury dice (for example, a Damage 2 weapon would roll one dice). Against attacks with Damage 1, roll two dice – the player controlling the fighter with True Grit, can then choose one dice to discard before the effects of the other are resolved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once per game, when this Model is activated it may call a Waaagh! As a free action. In the turn a Waaagh! is called, every model in the warband may add 1 to their Movement Characteristic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Model gains a 6+ ward save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frenzy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the turn this fighter moves into Engagement range with an enemy fighter, they gain an additional D3 Attacks. However, their hit rolls suffer a -1 modifier.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Model gains +1 Toughness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Counter-Attack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When this fighter makes Reaction attacks in close combat, they roll one additional Attack dice for each of the attacker’s Attacks that failed to hit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Model gains +1 Attack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step Aside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the fighter is hit in close combat, the fighter can attempt to step aside. Make an Initiative check for them. If the check is passed, the attack misses. This skill can only
+be used once per enemy in each round or close combat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Models with the Questing Vow must also take the Knight's Vow and The Questing Vow
+This model gains +1 Toughness
+This model gains +1 Attack
+This Model gains a 6+ ward save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This model has a 4+ Ward save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-This Mount gets +1 Attack and +1 Weapon Skill
+ -If this This Model would be pinned subtract 3" from its movement the next time it activates instead (This penalty does not stack)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rain of Blows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This fighter treats the Fight action as Fight (Simple) rather than Fight (Basic). In other words, this fighter may make two Fight (Simple) actions when activated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Model gains a 5+ Ward Save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This model gains a 4+ ward save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This model must start the game mounted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whent his Fighter fails a Cool check roll the check again. If passed on the second attmept, this Fighter falls back as normal but will automatically regroup at the end of the round</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mounts used by this model do not suffer the normal -1 to Movement for Barding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This model gets +1 Wound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shield Wall!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If this fighter is within 2" of 2 other friendly fighters with the Shieldwall ability, who are equipped with a shield and Standing, add 1 to this fighter's Shield Roll </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valhalla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Fighter does not take Cool checks when friendly fighters within 3" are taken out of action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Fighter can make up to 2 move activations prior to the beginning of the first round. If enemy fighters also have this ability roll of to determine who activates first</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hit and Run Specialist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After resolving a charge activation, this fighter may choose to take an intitiative test. If successful, thid fighter may disengage from this combat and make a consolidation move of up to 2"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skirmisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The fighter may move up to double their Movement characteristic and then make an attack with a ranged weapons. The hit roll suffers an additional -1 modifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order (Basic) – Pick a friendly fighter within 6’’. That fighter can immediately make two actions as though it were their turn to activate, even if they are not Ready. If they are Ready, these actions do not remove their Ready marker.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead by Example</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whenever this fighter takes an enemy fighter out of action in close combat, friendly fighters within 6" get +1 to hit until the end of the round</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jihad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once per game, when this Model is activated it may call a Jihad As a free action. In the turn a Jihad is called, every model in the warband may add 1 to their Movement Characteristic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambush Expert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select up to two fighters in the warband. This model gains the Infiltrate ability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbed Arrows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranged attacks made with Barbed Arrows get +1 to wound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elven Cloak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranged attacks made against a Fighter equipped with an Elven Cloak are resolved at -1 to hit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the beginningof the game this Fighter elects a single enemy Fighter to condemn. This Fighter wounds the condemned fighter on 2+ with close ocmbat and ranged attacks</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1296,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1212,6 +1461,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1222,6 +1475,26 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2439,7 +2712,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A72" activeCellId="0" sqref="A72"/>
     </sheetView>
   </sheetViews>
@@ -10144,10 +10417,13 @@
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K13" s="9"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
+      <c r="BN13" s="41" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K14" s="9"/>
@@ -10185,8 +10461,8 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I18" s="9"/>
@@ -10197,8 +10473,8 @@
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I19" s="9"/>
@@ -10209,8 +10485,8 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I20" s="40" t="str">
@@ -10678,8 +10954,8 @@
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
       <c r="W22" s="0" t="s">
         <v>219</v>
       </c>
@@ -10757,8 +11033,8 @@
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
       <c r="W23" s="0" t="s">
         <v>229</v>
       </c>
@@ -10815,8 +11091,8 @@
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
       <c r="AM24" s="0" t="s">
         <v>229</v>
       </c>
@@ -10847,8 +11123,8 @@
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I26" s="40" t="str">
@@ -11164,8 +11440,8 @@
       <c r="R27" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
       <c r="V27" s="0" t="s">
         <v>145</v>
       </c>
@@ -11294,8 +11570,8 @@
       <c r="R28" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="S28" s="41"/>
-      <c r="T28" s="41"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
       <c r="AH28" s="0" t="s">
         <v>170</v>
       </c>
@@ -11384,8 +11660,8 @@
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="41"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
       <c r="AU29" s="0" t="s">
         <v>170</v>
       </c>
@@ -11443,8 +11719,8 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
       <c r="R30" s="9"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="41"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
       <c r="AU30" s="0" t="s">
         <v>171</v>
       </c>
@@ -11479,8 +11755,8 @@
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
       <c r="R31" s="9"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="42"/>
       <c r="BO31" s="0" t="s">
         <v>156</v>
       </c>
@@ -11498,8 +11774,8 @@
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
       <c r="R32" s="9"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
       <c r="BO32" s="0" t="s">
         <v>168</v>
       </c>
@@ -11514,8 +11790,8 @@
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
       <c r="R33" s="9"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
+      <c r="S33" s="42"/>
+      <c r="T33" s="42"/>
       <c r="BO33" s="0" t="s">
         <v>170</v>
       </c>
@@ -12234,14 +12510,14 @@
       <c r="K37" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="L37" s="42" t="s">
+      <c r="L37" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="M37" s="42"/>
+      <c r="M37" s="43"/>
       <c r="N37" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="P37" s="42" t="s">
+      <c r="P37" s="43" t="s">
         <v>246</v>
       </c>
       <c r="Q37" s="0" t="s">
@@ -12383,8 +12659,8 @@
       <c r="J39" s="9"/>
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
+      <c r="S39" s="42"/>
+      <c r="T39" s="42"/>
       <c r="BB39" s="0" t="s">
         <v>249</v>
       </c>
@@ -12398,8 +12674,8 @@
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
       <c r="R40" s="9"/>
-      <c r="S40" s="41"/>
-      <c r="T40" s="41"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="42"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I41" s="9"/>
@@ -12410,8 +12686,8 @@
       <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
       <c r="R41" s="9"/>
-      <c r="S41" s="41"/>
-      <c r="T41" s="41"/>
+      <c r="S41" s="42"/>
+      <c r="T41" s="42"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I42" s="40" t="str">
@@ -12731,8 +13007,8 @@
       <c r="Q43" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="S43" s="41"/>
-      <c r="T43" s="41"/>
+      <c r="S43" s="42"/>
+      <c r="T43" s="42"/>
       <c r="W43" s="0" t="s">
         <v>249</v>
       </c>
@@ -12876,8 +13152,8 @@
       <c r="P44" s="9"/>
       <c r="Q44" s="9"/>
       <c r="R44" s="9"/>
-      <c r="S44" s="41"/>
-      <c r="T44" s="41"/>
+      <c r="S44" s="42"/>
+      <c r="T44" s="42"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I45" s="9"/>
@@ -12888,8 +13164,8 @@
       <c r="P45" s="9"/>
       <c r="Q45" s="9"/>
       <c r="R45" s="9"/>
-      <c r="S45" s="41"/>
-      <c r="T45" s="41"/>
+      <c r="S45" s="42"/>
+      <c r="T45" s="42"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I46" s="40" t="str">
@@ -13182,7 +13458,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I47" s="43"/>
+      <c r="I47" s="44"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c r="N47" s="9"/>
@@ -13190,7 +13466,7 @@
       <c r="P47" s="9"/>
       <c r="Q47" s="9"/>
       <c r="R47" s="9"/>
-      <c r="S47" s="41"/>
+      <c r="S47" s="42"/>
       <c r="T47" s="0" t="s">
         <v>252</v>
       </c>
@@ -13228,8 +13504,8 @@
       <c r="P48" s="9"/>
       <c r="Q48" s="9"/>
       <c r="R48" s="9"/>
-      <c r="S48" s="41"/>
-      <c r="T48" s="41"/>
+      <c r="S48" s="42"/>
+      <c r="T48" s="42"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="40" t="str">
@@ -14823,4 +15099,690 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C63"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="22.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="45" width="84.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="46" width="10.19"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3" s="46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" s="46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" s="46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8" s="46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" s="46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="C10" s="46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="C11" s="46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>291</v>
+      </c>
+      <c r="C12" s="46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="C13" s="46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="C14" s="46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>294</v>
+      </c>
+      <c r="C15" s="46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="C16" s="46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="C17" s="46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="47.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="C18" s="46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="C19" s="46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="47.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="C20" s="46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="C21" s="45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="C22" s="46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="C23" s="46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="C24" s="45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="C25" s="46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="C26" s="46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>308</v>
+      </c>
+      <c r="C27" s="46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="C28" s="46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="C29" s="46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="C30" s="46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="C31" s="45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>314</v>
+      </c>
+      <c r="C32" s="46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="C33" s="46" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="C34" s="45" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="C35" s="46" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="C36" s="46" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="C37" s="46" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="C38" s="45" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="C39" s="46" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="C40" s="45" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="47.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="C41" s="46" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="C42" s="46" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>326</v>
+      </c>
+      <c r="C43" s="46" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="C44" s="45" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B45" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="C45" s="46" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="C46" s="46" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B47" s="45" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B48" s="45" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="B49" s="45" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B50" s="45" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B51" s="45" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B52" s="45" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="B53" s="45" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="B54" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="C54" s="46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="B55" s="45" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="B56" s="45" t="s">
+        <v>344</v>
+      </c>
+      <c r="C56" s="46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="B57" s="45" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="B58" s="45" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="B59" s="45" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="B60" s="45" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="B61" s="45" t="s">
+        <v>354</v>
+      </c>
+      <c r="C61" s="46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="B62" s="45" t="s">
+        <v>356</v>
+      </c>
+      <c r="C62" s="46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B63" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="C63" s="46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Database.xlsx
+++ b/Database.xlsx
@@ -5,18 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Fantasy_Baseline_Stats" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Fantasy_Units" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Factions" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Weapons" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Relations" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Fantasy_Relations" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Abilities" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Armour" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="389">
   <si>
     <t xml:space="preserve">M</t>
   </si>
@@ -1107,6 +1108,102 @@
   </si>
   <si>
     <t xml:space="preserve">At the beginningof the game this Fighter elects a single enemy Fighter to condemn. This Fighter wounds the condemned fighter on 2+ with close ocmbat and ranged attacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armour Value CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armour Value R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armour Effect vs CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armour Effect vs R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-A model equipped with a Mantlet loses the benefits of a Mantlet if it moves from its starting location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pavise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Models with Barding Subtract 1 from their Movement Characteristic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helmet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- A Fighter with a helmet treats wound rolls of 1-6 made against it as Flesh Wounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scale Mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Reduce the AP of attacks made against this model by 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padded Armour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small Shield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-A Fighter equipped with a Small Shield shield gains a 10+ Shield save
+ -A shield can only be utilized in conjuntion with a single Melee weapon without the Unwieldly trait when engaged in Close Combat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large Shield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-A Fighter equipped with a Large Shield shield gains a 9+ Shield save
+ -A shield can only be utilized in conjuntion with a single Melee weapon without the Unwieldly trait when engaged in Close Combat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mail over Padded Armour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Reduce the AP of attacks made against this model by 1
+ -Reduce the Movement Characteristic of this Fighter by 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scale Mail over Padded Armour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Reduce the AP of attacks made against this model by 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Targe</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1298,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1211,7 +1308,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE2EFD9"/>
-        <bgColor rgb="FFFEF2CB"/>
+        <bgColor rgb="FFEDEDED"/>
       </patternFill>
     </fill>
     <fill>
@@ -1223,7 +1320,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFEF2CB"/>
-        <bgColor rgb="FFE2EFD9"/>
+        <bgColor rgb="FFEDEDED"/>
       </patternFill>
     </fill>
     <fill>
@@ -1232,8 +1329,26 @@
         <bgColor rgb="FFFEF2CB"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8FAADC"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDEDED"/>
+        <bgColor rgb="FFE2EFD9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6DCE5"/>
+        <bgColor rgb="FFD0CECE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1270,6 +1385,39 @@
       <bottom style="medium"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD0CECE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFD0CECE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0CECE"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD0CECE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFD0CECE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0CECE"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1296,7 +1444,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="62">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1497,6 +1645,54 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1561,7 +1757,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFEDEDED"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -1576,14 +1772,14 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFD0CECE"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF8FAADC"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFEF2CB"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFC5E0B3"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFC5E0B3"/>
+      <rgbColor rgb="FFD6DCE5"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -2578,7 +2774,7 @@
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F68" activeCellId="0" sqref="F68"/>
     </sheetView>
   </sheetViews>
@@ -2712,7 +2908,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A72" activeCellId="0" sqref="A72"/>
     </sheetView>
   </sheetViews>
@@ -6392,7 +6588,7 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -6495,7 +6691,7 @@
   </sheetPr>
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J49" activeCellId="0" sqref="J49"/>
     </sheetView>
   </sheetViews>
@@ -9060,8 +9256,8 @@
   </sheetPr>
   <dimension ref="A1:CB74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BD1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BN13" activeCellId="0" sqref="BN13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BD1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BF27" activeCellId="0" sqref="BF27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15108,7 +15304,7 @@
   </sheetPr>
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -15785,4 +15981,655 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="21.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="56.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="29.56"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="50" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>361</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>363</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="51" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>364</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>364</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="53" t="n">
+        <v>20</v>
+      </c>
+      <c r="F3" s="53" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="53" t="n">
+        <v>30</v>
+      </c>
+      <c r="F4" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" s="53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>366</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>366</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="53" t="n">
+        <v>40</v>
+      </c>
+      <c r="F5" s="53" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" s="53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="53" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="53" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="53" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="53" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="53" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="53" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>367</v>
+      </c>
+      <c r="E10" s="53" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="53" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="53" t="s">
+        <v>368</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="53" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="E13" s="53" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="53" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="53" t="s">
+        <v>243</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="53" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>366</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>366</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="53" t="n">
+        <v>35</v>
+      </c>
+      <c r="F16" s="53" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" s="53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" s="53" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>364</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>364</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="53" t="n">
+        <v>20</v>
+      </c>
+      <c r="F18" s="53" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" s="53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="56" t="s">
+        <v>370</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>371</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>371</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>372</v>
+      </c>
+      <c r="E19" s="58" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="56" t="s">
+        <v>373</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>374</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>374</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" s="58" t="n">
+        <v>30</v>
+      </c>
+      <c r="F20" s="58" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" s="58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>371</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>371</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>376</v>
+      </c>
+      <c r="E21" s="58" t="n">
+        <v>20</v>
+      </c>
+      <c r="F21" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="56" t="s">
+        <v>377</v>
+      </c>
+      <c r="B22" s="57" t="s">
+        <v>371</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>371</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="58" t="n">
+        <v>15</v>
+      </c>
+      <c r="F22" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="21.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="56" t="s">
+        <v>378</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>371</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>371</v>
+      </c>
+      <c r="D23" s="59" t="s">
+        <v>379</v>
+      </c>
+      <c r="E23" s="58" t="n">
+        <v>15</v>
+      </c>
+      <c r="F23" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="21.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="56" t="s">
+        <v>380</v>
+      </c>
+      <c r="B24" s="57" t="s">
+        <v>371</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>374</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>381</v>
+      </c>
+      <c r="E24" s="58" t="n">
+        <v>25</v>
+      </c>
+      <c r="F24" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="21.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="56" t="s">
+        <v>382</v>
+      </c>
+      <c r="B25" s="57" t="s">
+        <v>383</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>383</v>
+      </c>
+      <c r="D25" s="59" t="s">
+        <v>384</v>
+      </c>
+      <c r="E25" s="58" t="n">
+        <v>45</v>
+      </c>
+      <c r="F25" s="58" t="n">
+        <v>4</v>
+      </c>
+      <c r="G25" s="58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="21.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="60" t="s">
+        <v>385</v>
+      </c>
+      <c r="B26" s="61" t="s">
+        <v>386</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>386</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>387</v>
+      </c>
+      <c r="E26" s="58" t="n">
+        <v>40</v>
+      </c>
+      <c r="F26" s="58" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" s="58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="60" t="s">
+        <v>388</v>
+      </c>
+      <c r="B27" s="61" t="s">
+        <v>371</v>
+      </c>
+      <c r="C27" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="58" t="n">
+        <v>15</v>
+      </c>
+      <c r="F27" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Database.xlsx
+++ b/Database.xlsx
@@ -1258,7 +1258,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="General"/>
     <numFmt numFmtId="168" formatCode="#,##0;[RED]\-#,##0"/>
   </numFmts>
   <fonts count="12">
@@ -1530,7 +1530,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1591,7 +1591,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1639,27 +1639,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="6" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="6" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="7" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="7" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1675,7 +1675,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="7" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="7" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1683,11 +1683,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="3" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="3" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1703,7 +1703,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="3" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="3" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1711,15 +1711,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="3" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="3" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="3" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="3" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="3" borderId="3" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="3" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1751,7 +1751,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="5" borderId="3" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="9" fillId="5" borderId="3" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1836,10 +1836,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2116,7 +2112,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="22.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="60" width="84.94"/>
@@ -2802,7 +2798,7 @@
       <selection pane="topLeft" activeCell="G52" activeCellId="0" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="21.36"/>
@@ -3449,11 +3445,11 @@
   </sheetPr>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.98"/>
   </cols>
@@ -3502,7 +3498,7 @@
         <v>9</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3515,34 +3511,34 @@
       <c r="E2" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="F2" s="77" t="n">
+      <c r="F2" s="13" t="n">
         <v>6</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H2" s="77" t="n">
+      <c r="H2" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="I2" s="77" t="n">
+      <c r="I2" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="J2" s="77" t="n">
+      <c r="J2" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="K2" s="77" t="n">
+      <c r="K2" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="L2" s="77" t="n">
+      <c r="L2" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="M2" s="77" t="n">
+      <c r="M2" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="N2" s="77" t="n">
+      <c r="N2" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="O2" s="78" t="n">
+      <c r="O2" s="77" t="n">
         <v>85</v>
       </c>
     </row>
@@ -3556,7 +3552,7 @@
       <c r="E3" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="F3" s="77" t="n">
+      <c r="F3" s="13" t="n">
         <v>6</v>
       </c>
       <c r="G3" s="0" t="n">
@@ -3565,25 +3561,25 @@
       <c r="H3" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I3" s="77" t="n">
+      <c r="I3" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="J3" s="77" t="n">
+      <c r="J3" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="K3" s="77" t="n">
+      <c r="K3" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="L3" s="77" t="n">
+      <c r="L3" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="M3" s="77" t="n">
+      <c r="M3" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="N3" s="77" t="n">
+      <c r="N3" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="O3" s="78" t="n">
+      <c r="O3" s="77" t="n">
         <v>90</v>
       </c>
     </row>
@@ -3594,34 +3590,34 @@
       <c r="E4" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="F4" s="77" t="n">
+      <c r="F4" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="G4" s="77" t="n">
+      <c r="G4" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="H4" s="77" t="n">
+      <c r="H4" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="I4" s="77" t="n">
+      <c r="I4" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="J4" s="77" t="n">
+      <c r="J4" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="K4" s="77" t="n">
+      <c r="K4" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="L4" s="77" t="n">
+      <c r="L4" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="M4" s="77" t="n">
+      <c r="M4" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="N4" s="77" t="n">
+      <c r="N4" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="O4" s="77" t="n">
+      <c r="O4" s="13" t="n">
         <v>70</v>
       </c>
     </row>
@@ -3632,34 +3628,34 @@
       <c r="E5" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="F5" s="77" t="n">
+      <c r="F5" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="77" t="n">
+      <c r="G5" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="H5" s="77" t="n">
+      <c r="H5" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="I5" s="77" t="n">
+      <c r="I5" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="J5" s="77" t="n">
+      <c r="J5" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="K5" s="77" t="n">
+      <c r="K5" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="L5" s="77" t="n">
+      <c r="L5" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="M5" s="77" t="n">
+      <c r="M5" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="N5" s="77" t="n">
+      <c r="N5" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="O5" s="77" t="n">
+      <c r="O5" s="13" t="n">
         <v>75</v>
       </c>
     </row>
@@ -3670,34 +3666,34 @@
       <c r="E6" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="F6" s="77" t="n">
+      <c r="F6" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="G6" s="77" t="n">
+      <c r="G6" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="77" t="n">
+      <c r="H6" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="77" t="n">
+      <c r="I6" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="J6" s="77" t="n">
+      <c r="J6" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="K6" s="77" t="n">
+      <c r="K6" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="L6" s="77" t="n">
+      <c r="L6" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="M6" s="77" t="n">
+      <c r="M6" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="N6" s="77" t="n">
+      <c r="N6" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="O6" s="77" t="n">
+      <c r="O6" s="13" t="n">
         <v>85</v>
       </c>
     </row>
@@ -3708,34 +3704,34 @@
       <c r="E7" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="F7" s="77" t="n">
+      <c r="F7" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="G7" s="77" t="n">
+      <c r="G7" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="H7" s="77" t="n">
+      <c r="H7" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="I7" s="77" t="n">
+      <c r="I7" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="J7" s="77" t="n">
+      <c r="J7" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="K7" s="77" t="n">
+      <c r="K7" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="L7" s="77" t="n">
+      <c r="L7" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="M7" s="77" t="n">
+      <c r="M7" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="N7" s="77" t="n">
+      <c r="N7" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="O7" s="77" t="n">
+      <c r="O7" s="13" t="n">
         <v>110</v>
       </c>
     </row>
@@ -3746,34 +3742,34 @@
       <c r="E8" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="F8" s="77" t="n">
+      <c r="F8" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="G8" s="77" t="n">
+      <c r="G8" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="H8" s="77" t="n">
+      <c r="H8" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="I8" s="77" t="n">
+      <c r="I8" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="J8" s="77" t="n">
+      <c r="J8" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="K8" s="77" t="n">
+      <c r="K8" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="L8" s="77" t="n">
+      <c r="L8" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="M8" s="77" t="n">
+      <c r="M8" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="N8" s="77" t="n">
+      <c r="N8" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="O8" s="77" t="n">
+      <c r="O8" s="13" t="n">
         <v>215</v>
       </c>
     </row>
@@ -3784,34 +3780,34 @@
       <c r="E9" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="F9" s="77" t="n">
+      <c r="F9" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="G9" s="77" t="n">
+      <c r="G9" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="H9" s="77" t="n">
+      <c r="H9" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="I9" s="77" t="n">
+      <c r="I9" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="J9" s="77" t="n">
+      <c r="J9" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="K9" s="77" t="n">
+      <c r="K9" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="L9" s="77" t="n">
+      <c r="L9" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="M9" s="77" t="n">
+      <c r="M9" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="N9" s="77" t="n">
+      <c r="N9" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="O9" s="77" t="n">
+      <c r="O9" s="13" t="n">
         <v>215</v>
       </c>
     </row>
@@ -3833,11 +3829,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B73" activeCellId="0" sqref="B73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="36.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.67"/>
@@ -7124,11 +7120,11 @@
   </sheetPr>
   <dimension ref="A1:CB74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BD1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AG1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="BF27" activeCellId="0" sqref="BF27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.4"/>
@@ -13176,7 +13172,7 @@
       <selection pane="topLeft" activeCell="M68" activeCellId="0" sqref="M68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
@@ -13300,11 +13296,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.67"/>
@@ -13364,7 +13360,7 @@
         <v>9</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="AMJ1" s="0"/>
     </row>
@@ -15094,10 +15090,10 @@
   <dimension ref="A1:AE63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R24" activeCellId="0" sqref="R24"/>
+      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="28.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.65"/>
@@ -17767,7 +17763,7 @@
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="21.48"/>
   </cols>
@@ -17866,7 +17862,7 @@
   </sheetPr>
   <dimension ref="A1:AMD49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N53" activeCellId="0" sqref="N53"/>
     </sheetView>
   </sheetViews>
@@ -17882,7 +17878,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="20.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="50.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="18.79"/>
@@ -64109,7 +64105,7 @@
       <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.78"/>
   </cols>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Fantasy_Baseline_Stats" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="402">
   <si>
     <t xml:space="preserve">M</t>
   </si>
@@ -84,7 +84,7 @@
     <t xml:space="preserve">AB3</t>
   </si>
   <si>
-    <t xml:space="preserve">Points</t>
+    <t xml:space="preserve">Cost</t>
   </si>
   <si>
     <t xml:space="preserve">Empire</t>
@@ -463,9 +463,6 @@
   </si>
   <si>
     <t xml:space="preserve">Spear (Two Handed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost</t>
   </si>
   <si>
     <t xml:space="preserve">Halberd</t>
@@ -1974,7 +1971,7 @@
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2108,8 +2105,8 @@
   </sheetPr>
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2124,18 +2121,18 @@
         <v>13</v>
       </c>
       <c r="B1" s="63" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" s="60" t="s">
         <v>318</v>
-      </c>
-      <c r="B2" s="60" t="s">
-        <v>319</v>
       </c>
       <c r="C2" s="61" t="n">
         <v>0</v>
@@ -2143,10 +2140,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="B3" s="60" t="s">
         <v>320</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>321</v>
       </c>
       <c r="C3" s="61" t="n">
         <v>5</v>
@@ -2157,7 +2154,7 @@
         <v>73</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C4" s="61" t="n">
         <v>5</v>
@@ -2168,7 +2165,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C5" s="61" t="n">
         <v>5</v>
@@ -2179,7 +2176,7 @@
         <v>65</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C6" s="61" t="n">
         <v>5</v>
@@ -2190,7 +2187,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C7" s="61" t="n">
         <v>5</v>
@@ -2201,7 +2198,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C8" s="61" t="n">
         <v>5</v>
@@ -2212,7 +2209,7 @@
         <v>52</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C9" s="61" t="n">
         <v>5</v>
@@ -2223,7 +2220,7 @@
         <v>85</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C10" s="61" t="n">
         <v>5</v>
@@ -2234,7 +2231,7 @@
         <v>82</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C11" s="61" t="n">
         <v>5</v>
@@ -2245,7 +2242,7 @@
         <v>40</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C12" s="61" t="n">
         <v>5</v>
@@ -2256,7 +2253,7 @@
         <v>38</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C13" s="61" t="n">
         <v>5</v>
@@ -2267,7 +2264,7 @@
         <v>98</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C14" s="61" t="n">
         <v>5</v>
@@ -2278,7 +2275,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C15" s="61" t="n">
         <v>5</v>
@@ -2286,10 +2283,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C16" s="61" t="n">
         <v>5</v>
@@ -2300,7 +2297,7 @@
         <v>84</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C17" s="61" t="n">
         <v>5</v>
@@ -2308,10 +2305,10 @@
     </row>
     <row r="18" customFormat="false" ht="47.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C18" s="61" t="n">
         <v>5</v>
@@ -2322,7 +2319,7 @@
         <v>91</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C19" s="61" t="n">
         <v>5</v>
@@ -2333,7 +2330,7 @@
         <v>48</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C20" s="61" t="n">
         <v>10</v>
@@ -2341,10 +2338,10 @@
     </row>
     <row r="21" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C21" s="60" t="n">
         <v>10</v>
@@ -2355,7 +2352,7 @@
         <v>37</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C22" s="61" t="n">
         <v>10</v>
@@ -2366,7 +2363,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C23" s="61" t="n">
         <v>10</v>
@@ -2374,10 +2371,10 @@
     </row>
     <row r="24" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C24" s="60" t="n">
         <v>10</v>
@@ -2385,10 +2382,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C25" s="61" t="n">
         <v>10</v>
@@ -2396,10 +2393,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C26" s="61" t="n">
         <v>10</v>
@@ -2410,7 +2407,7 @@
         <v>101</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C27" s="61" t="n">
         <v>10</v>
@@ -2418,10 +2415,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B28" s="60" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C28" s="61" t="n">
         <v>10</v>
@@ -2429,10 +2426,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C29" s="61" t="n">
         <v>10</v>
@@ -2440,10 +2437,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C30" s="61" t="n">
         <v>10</v>
@@ -2451,10 +2448,10 @@
     </row>
     <row r="31" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C31" s="60" t="n">
         <v>10</v>
@@ -2462,10 +2459,10 @@
     </row>
     <row r="32" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C32" s="61" t="n">
         <v>10</v>
@@ -2476,7 +2473,7 @@
         <v>68</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C33" s="61" t="n">
         <v>15</v>
@@ -2484,10 +2481,10 @@
     </row>
     <row r="34" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B34" s="60" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C34" s="60" t="n">
         <v>15</v>
@@ -2495,10 +2492,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B35" s="60" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C35" s="61" t="n">
         <v>15</v>
@@ -2506,10 +2503,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C36" s="61" t="n">
         <v>15</v>
@@ -2520,7 +2517,7 @@
         <v>55</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C37" s="61" t="n">
         <v>15</v>
@@ -2528,10 +2525,10 @@
     </row>
     <row r="38" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C38" s="60" t="n">
         <v>20</v>
@@ -2539,10 +2536,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B39" s="60" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C39" s="61" t="n">
         <v>20</v>
@@ -2550,10 +2547,10 @@
     </row>
     <row r="40" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C40" s="60" t="n">
         <v>20</v>
@@ -2561,10 +2558,10 @@
     </row>
     <row r="41" customFormat="false" ht="47.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B41" s="60" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C41" s="61" t="n">
         <v>20</v>
@@ -2575,7 +2572,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="60" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C42" s="61" t="n">
         <v>30</v>
@@ -2583,10 +2580,10 @@
     </row>
     <row r="43" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B43" s="60" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C43" s="61" t="n">
         <v>30</v>
@@ -2594,10 +2591,10 @@
     </row>
     <row r="44" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B44" s="60" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C44" s="60" t="n">
         <v>30</v>
@@ -2605,10 +2602,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B45" s="60" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C45" s="61" t="n">
         <v>30</v>
@@ -2619,7 +2616,7 @@
         <v>60</v>
       </c>
       <c r="B46" s="60" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C46" s="61" t="n">
         <v>50</v>
@@ -2627,66 +2624,66 @@
     </row>
     <row r="47" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B47" s="60" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B48" s="60" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B49" s="60" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B50" s="60" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B51" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B52" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B53" s="60" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B54" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C54" s="61" t="n">
         <v>10</v>
@@ -2694,18 +2691,18 @@
     </row>
     <row r="55" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B55" s="60" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B56" s="60" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C56" s="61" t="n">
         <v>10</v>
@@ -2713,42 +2710,42 @@
     </row>
     <row r="57" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B57" s="60" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B58" s="60" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B59" s="60" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B60" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="B61" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="B61" s="60" t="s">
-        <v>378</v>
       </c>
       <c r="C61" s="61" t="n">
         <v>5</v>
@@ -2756,10 +2753,10 @@
     </row>
     <row r="62" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B62" s="60" t="s">
         <v>379</v>
-      </c>
-      <c r="B62" s="60" t="s">
-        <v>380</v>
       </c>
       <c r="C62" s="61" t="n">
         <v>5</v>
@@ -2770,7 +2767,7 @@
         <v>33</v>
       </c>
       <c r="B63" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C63" s="61" t="n">
         <v>10</v>
@@ -2794,7 +2791,7 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G52" activeCellId="0" sqref="G52"/>
     </sheetView>
   </sheetViews>
@@ -2811,36 +2808,36 @@
         <v>13</v>
       </c>
       <c r="B1" s="64" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1" s="64" t="s">
         <v>382</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="D1" s="64" t="s">
+        <v>316</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="64" t="s">
         <v>383</v>
       </c>
-      <c r="D1" s="64" t="s">
-        <v>317</v>
-      </c>
-      <c r="E1" s="64" t="s">
-        <v>144</v>
-      </c>
-      <c r="F1" s="64" t="s">
+      <c r="G1" s="64" t="s">
         <v>384</v>
-      </c>
-      <c r="G1" s="64" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="65" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E2" s="65" t="n">
         <v>10</v>
@@ -2854,16 +2851,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="67" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" s="68" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C3" s="68" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E3" s="67" t="n">
         <v>20</v>
@@ -2877,16 +2874,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="67" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B4" s="68" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C4" s="68" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E4" s="67" t="n">
         <v>30</v>
@@ -2900,16 +2897,16 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="67" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C5" s="68" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E5" s="67" t="n">
         <v>40</v>
@@ -2923,16 +2920,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="67" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E6" s="67" t="n">
         <v>10</v>
@@ -2946,16 +2943,16 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="67" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D7" s="68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E7" s="67" t="n">
         <v>10</v>
@@ -2969,16 +2966,16 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="67" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C8" s="68" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D8" s="68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E8" s="67" t="n">
         <v>5</v>
@@ -2992,16 +2989,16 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="67" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D9" s="68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E9" s="67" t="n">
         <v>5</v>
@@ -3015,16 +3012,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="67" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C10" s="68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D10" s="68" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E10" s="67" t="n">
         <v>5</v>
@@ -3038,16 +3035,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="67" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D11" s="68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E11" s="67" t="n">
         <v>5</v>
@@ -3061,16 +3058,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="67" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C12" s="68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D12" s="68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E12" s="67" t="n">
         <v>10</v>
@@ -3084,16 +3081,16 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D13" s="68" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E13" s="67" t="n">
         <v>5</v>
@@ -3107,16 +3104,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="67" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D14" s="68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E14" s="67" t="n">
         <v>10</v>
@@ -3130,16 +3127,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="67" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B15" s="68" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D15" s="68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E15" s="67" t="n">
         <v>10</v>
@@ -3153,16 +3150,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="67" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B16" s="68" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C16" s="68" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D16" s="68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E16" s="67" t="n">
         <v>35</v>
@@ -3176,16 +3173,16 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="67" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B17" s="68" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C17" s="68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D17" s="68" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E17" s="67" t="n">
         <v>10</v>
@@ -3199,16 +3196,16 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B18" s="68" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C18" s="68" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D18" s="68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E18" s="67" t="n">
         <v>20</v>
@@ -3222,16 +3219,16 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="70" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B19" s="71" t="s">
+        <v>392</v>
+      </c>
+      <c r="C19" s="71" t="s">
+        <v>392</v>
+      </c>
+      <c r="D19" s="71" t="s">
         <v>393</v>
-      </c>
-      <c r="C19" s="71" t="s">
-        <v>393</v>
-      </c>
-      <c r="D19" s="71" t="s">
-        <v>394</v>
       </c>
       <c r="E19" s="72" t="n">
         <v>10</v>
@@ -3245,16 +3242,16 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="70" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B20" s="71" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C20" s="71" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D20" s="73" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E20" s="72" t="n">
         <v>30</v>
@@ -3268,16 +3265,16 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B21" s="71" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C21" s="71" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D21" s="71" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E21" s="72" t="n">
         <v>20</v>
@@ -3291,16 +3288,16 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="70" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B22" s="71" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C22" s="71" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D22" s="71" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E22" s="72" t="n">
         <v>15</v>
@@ -3314,16 +3311,16 @@
     </row>
     <row r="23" customFormat="false" ht="21.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="70" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B23" s="71" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D23" s="73" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E23" s="72" t="n">
         <v>15</v>
@@ -3337,16 +3334,16 @@
     </row>
     <row r="24" customFormat="false" ht="21.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="70" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B24" s="71" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C24" s="71" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D24" s="73" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E24" s="72" t="n">
         <v>25</v>
@@ -3360,16 +3357,16 @@
     </row>
     <row r="25" customFormat="false" ht="21.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="70" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B25" s="71" t="s">
+        <v>398</v>
+      </c>
+      <c r="C25" s="71" t="s">
+        <v>398</v>
+      </c>
+      <c r="D25" s="73" t="s">
         <v>399</v>
-      </c>
-      <c r="C25" s="71" t="s">
-        <v>399</v>
-      </c>
-      <c r="D25" s="73" t="s">
-        <v>400</v>
       </c>
       <c r="E25" s="72" t="n">
         <v>45</v>
@@ -3383,16 +3380,16 @@
     </row>
     <row r="26" customFormat="false" ht="21.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="74" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B26" s="75" t="s">
+        <v>400</v>
+      </c>
+      <c r="C26" s="75" t="s">
+        <v>400</v>
+      </c>
+      <c r="D26" s="73" t="s">
         <v>401</v>
-      </c>
-      <c r="C26" s="75" t="s">
-        <v>401</v>
-      </c>
-      <c r="D26" s="73" t="s">
-        <v>402</v>
       </c>
       <c r="E26" s="72" t="n">
         <v>40</v>
@@ -3406,16 +3403,16 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="74" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B27" s="75" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C27" s="75" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D27" s="73" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E27" s="72" t="n">
         <v>15</v>
@@ -3445,8 +3442,8 @@
   </sheetPr>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3498,7 +3495,7 @@
         <v>9</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3829,8 +3826,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B73" activeCellId="0" sqref="B73"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7120,8 +7117,8 @@
   </sheetPr>
   <dimension ref="A1:CB74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AG1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BF27" activeCellId="0" sqref="BF27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BK1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BN13" activeCellId="0" sqref="BN13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8482,7 +8479,7 @@
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
       <c r="BN13" s="16" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8844,13 +8841,13 @@
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>143</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O21" s="0" t="s">
         <v>143</v>
@@ -8858,22 +8855,22 @@
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="S21" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="T21" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="S21" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="T21" s="0" t="s">
-        <v>147</v>
-      </c>
       <c r="U21" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="W21" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA21" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB21" s="0" t="s">
         <v>143</v>
@@ -8897,13 +8894,13 @@
         <v>143</v>
       </c>
       <c r="AJ21" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK21" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AM21" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AQ21" s="0" t="s">
         <v>143</v>
@@ -8912,34 +8909,34 @@
         <v>143</v>
       </c>
       <c r="AS21" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AU21" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AW21" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AX21" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AY21" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AZ21" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BA21" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BC21" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="BD21" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="BF21" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="BG21" s="0" t="s">
         <v>143</v>
@@ -8948,49 +8945,49 @@
         <v>143</v>
       </c>
       <c r="BK21" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BL21" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BM21" s="0" t="s">
         <v>143</v>
       </c>
       <c r="BN21" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="BO21" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BP21" s="0" t="s">
         <v>143</v>
       </c>
       <c r="BR21" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="BS21" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="BT21" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU21" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="BW21" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="BX21" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="BU21" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="BW21" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="BX21" s="0" t="s">
-        <v>152</v>
-      </c>
       <c r="BY21" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="BZ21" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="CA21" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="CB21" s="0" t="s">
         <v>143</v>
@@ -8998,17 +8995,17 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I22" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
@@ -9023,37 +9020,37 @@
         <v>143</v>
       </c>
       <c r="AC22" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF22" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AI22" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AK22" s="0" t="s">
         <v>143</v>
       </c>
       <c r="AM22" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AU22" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BC22" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BD22" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BF22" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BN22" s="0" t="s">
         <v>143</v>
       </c>
       <c r="BO22" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="BR22" s="0" t="s">
         <v>143</v>
@@ -9062,13 +9059,13 @@
         <v>143</v>
       </c>
       <c r="BW22" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="BX22" s="0" t="s">
         <v>143</v>
       </c>
       <c r="BY22" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="BZ22" s="0" t="s">
         <v>143</v>
@@ -9081,10 +9078,10 @@
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N23" s="0" t="s">
         <v>143</v>
@@ -9096,34 +9093,34 @@
       <c r="S23" s="17"/>
       <c r="T23" s="17"/>
       <c r="W23" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC23" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF23" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI23" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM23" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="AC23" s="0" t="s">
+      <c r="AU23" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="BC23" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="AF23" s="0" t="s">
+      <c r="BD23" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="AI23" s="0" t="s">
+      <c r="BF23" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="AM23" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU23" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="BC23" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD23" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="BF23" s="0" t="s">
-        <v>147</v>
-      </c>
       <c r="BN23" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BO23" s="0" t="s">
         <v>143</v>
@@ -9139,13 +9136,13 @@
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="N24" s="0" t="s">
         <v>146</v>
-      </c>
-      <c r="L24" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="N24" s="0" t="s">
-        <v>147</v>
       </c>
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
@@ -9154,19 +9151,19 @@
       <c r="S24" s="17"/>
       <c r="T24" s="17"/>
       <c r="AM24" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BC24" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BD24" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BF24" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BO24" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9174,10 +9171,10 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
@@ -9478,56 +9475,56 @@
     </row>
     <row r="27" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I27" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="J27" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="J27" s="9" t="s">
+      <c r="L27" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="M27" s="13" t="s">
         <v>155</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="M27" s="13" t="s">
-        <v>156</v>
       </c>
       <c r="N27" s="9"/>
       <c r="O27" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="P27" s="0" t="s">
         <v>157</v>
-      </c>
-      <c r="P27" s="0" t="s">
-        <v>158</v>
       </c>
       <c r="Q27" s="9"/>
       <c r="R27" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S27" s="17"/>
       <c r="T27" s="17"/>
       <c r="V27" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="W27" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="X27" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z27" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA27" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG27" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH27" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI27" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL27" s="0" t="s">
         <v>159</v>
-      </c>
-      <c r="W27" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="X27" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z27" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA27" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG27" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="AH27" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="AI27" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="AL27" s="0" t="s">
-        <v>160</v>
       </c>
       <c r="AQ27" s="0" t="s">
         <v>136</v>
@@ -9539,73 +9536,73 @@
         <v>138</v>
       </c>
       <c r="AU27" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AV27" s="0" t="s">
         <v>136</v>
       </c>
       <c r="AW27" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BA27" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BC27" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="BD27" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="BF27" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="BG27" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="BD27" s="0" t="s">
+      <c r="BH27" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="BJ27" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="BL27" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="BM27" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="BN27" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="BO27" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="BF27" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="BG27" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="BH27" s="0" t="s">
+      <c r="BP27" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="BQ27" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="BR27" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="BS27" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="BW27" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="BJ27" s="0" t="s">
+      <c r="BX27" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="BY27" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="BL27" s="0" t="s">
+      <c r="BZ27" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="CA27" s="0" t="s">
         <v>164</v>
-      </c>
-      <c r="BM27" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="BN27" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="BO27" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="BP27" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="BQ27" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="BR27" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="BS27" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="BW27" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="BX27" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="BY27" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="BZ27" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="CA27" s="0" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9613,13 +9610,13 @@
         <v>138</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N28" s="9"/>
       <c r="O28" s="13" t="s">
@@ -9628,7 +9625,7 @@
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
       <c r="R28" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S28" s="17"/>
       <c r="T28" s="17"/>
@@ -9651,13 +9648,13 @@
         <v>138</v>
       </c>
       <c r="AW28" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BA28" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BD28" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BG28" s="0" t="s">
         <v>138</v>
@@ -9666,54 +9663,54 @@
         <v>138</v>
       </c>
       <c r="BL28" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="BM28" s="0" t="s">
         <v>138</v>
       </c>
       <c r="BN28" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="BO28" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BP28" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="BQ28" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="BR28" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BW28" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BX28" s="0" t="s">
         <v>138</v>
       </c>
       <c r="BY28" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BZ28" s="0" t="s">
         <v>138</v>
       </c>
       <c r="CA28" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I29" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
@@ -9726,16 +9723,16 @@
         <v>138</v>
       </c>
       <c r="AV29" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW29" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BA29" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="BD29" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BL29" s="0" t="s">
         <v>138</v>
@@ -9744,16 +9741,16 @@
         <v>138</v>
       </c>
       <c r="BO29" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BP29" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BQ29" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BR29" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BW29" s="0" t="s">
         <v>138</v>
@@ -9772,7 +9769,7 @@
         <v>138</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
@@ -9782,13 +9779,13 @@
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
       <c r="AU30" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA30" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BO30" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BP30" s="0" t="s">
         <v>138</v>
@@ -9797,7 +9794,7 @@
         <v>138</v>
       </c>
       <c r="BR30" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9805,10 +9802,10 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
@@ -9818,10 +9815,10 @@
       <c r="S31" s="17"/>
       <c r="T31" s="17"/>
       <c r="BO31" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="BR31" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9837,7 +9834,7 @@
       <c r="S32" s="17"/>
       <c r="T32" s="17"/>
       <c r="BO32" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10180,538 +10177,538 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="D35" s="0" t="s">
+      <c r="E35" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="E35" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="F35" s="11" t="s">
+      <c r="G35" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="H35" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="G35" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="H35" s="0" t="s">
+      <c r="I35" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="I35" s="0" t="s">
-        <v>175</v>
-      </c>
       <c r="J35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="V35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Y35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Z35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AA35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AC35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AG35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AH35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AI35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AK35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AM35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AN35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AO35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AQ35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AR35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AS35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AT35" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AU35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AV35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AW35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AY35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AZ35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BA35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BB35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BC35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BD35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BE35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BF35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BG35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BH35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BI35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BJ35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BK35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BL35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BM35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BN35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BO35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BP35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BQ35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BR35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BS35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BT35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BU35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BW35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BX35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BY35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BZ35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="CA35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="CB35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="W36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AA36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AC36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AI36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AN36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AO36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AQ36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AS36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AU36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AV36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AY36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AZ36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BA36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BB36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BC36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BE36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BF36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BG36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BH36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BJ36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BK36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BL36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BM36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BN36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BO36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BP36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BQ36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BR36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BS36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BT36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BU36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BW36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BX36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BY36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BZ36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="CA36" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K37" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L37" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M37" s="18"/>
       <c r="N37" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P37" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q37" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S37" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U37" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="W37" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X37" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Y37" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC37" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF37" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AM37" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AN37" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AO37" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AS37" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AU37" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AV37" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AW37" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AY37" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AZ37" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BA37" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BB37" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BC37" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BE37" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BF37" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BH37" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BK37" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BM37" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BN37" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BO37" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BP37" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BQ37" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BW37" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BX37" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BY37" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BZ37" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="P38" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q38" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="AY38" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="BA38" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="BB38" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="L38" s="0" t="s">
+      <c r="BC38" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="P38" s="0" t="s">
+      <c r="BE38" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="Q38" s="0" t="s">
+      <c r="BF38" s="0" t="s">
         <v>178</v>
-      </c>
-      <c r="AY38" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="BA38" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="BB38" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="BC38" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="BE38" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="BF38" s="0" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10722,7 +10719,7 @@
       <c r="S39" s="17"/>
       <c r="T39" s="17"/>
       <c r="BB39" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11041,170 +11038,170 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I43" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P43" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q43" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S43" s="17"/>
       <c r="T43" s="17"/>
       <c r="W43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="X43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="AM43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="AO43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="AP43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="AR43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="AS43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="AU43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="AV43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="AW43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="AY43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="AZ43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="BA43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="BB43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="BC43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="BD43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="BE43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="BF43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="BG43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="BH43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="BM43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="BN43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="BO43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="BP43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="BQ43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="BR43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="BS43" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="BY43" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="X43" s="0" t="s">
+      <c r="CA43" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="Y43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="AB43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="AC43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="AD43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="AE43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="AF43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="AH43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="AI43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="AK43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="AL43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="AM43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="AN43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="AO43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="AP43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="AS43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="AU43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="AV43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="AW43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="AY43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="AZ43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="BA43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="BB43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="BC43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="BD43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="BE43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="BF43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="BG43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="BH43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="BM43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="BN43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="BO43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="BP43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="BQ43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="BR43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="BS43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="BY43" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="CA43" s="0" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I44" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K44" s="9"/>
       <c r="N44" s="9"/>
@@ -11528,31 +11525,31 @@
       <c r="R47" s="9"/>
       <c r="S47" s="17"/>
       <c r="T47" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AY47" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="AY47" s="0" t="s">
+      <c r="AZ47" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA47" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ47" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="AZ47" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="BA47" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="BJ47" s="0" t="s">
+      <c r="BW47" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="BW47" s="0" t="s">
-        <v>186</v>
-      </c>
       <c r="BX47" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BY47" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BZ47" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11888,7 +11885,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H50" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>20</v>
@@ -11965,7 +11962,7 @@
         <v>65</v>
       </c>
       <c r="AL50" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AM50" s="0" t="s">
         <v>68</v>
@@ -12047,16 +12044,16 @@
         <v>98</v>
       </c>
       <c r="BW50" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BX50" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BY50" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BZ50" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12104,16 +12101,16 @@
         <v>55</v>
       </c>
       <c r="AF51" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM51" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="AM51" s="11" t="s">
-        <v>190</v>
-      </c>
       <c r="AN51" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AO51" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AR51" s="11" t="s">
         <v>73</v>
@@ -12170,7 +12167,7 @@
         <v>48</v>
       </c>
       <c r="AO52" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BI52" s="11" t="s">
         <v>101</v>
@@ -12525,106 +12522,106 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="F56" s="0" t="s">
         <v>192</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="F56" s="0" t="s">
-        <v>193</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K56" s="9"/>
       <c r="N56" s="9"/>
       <c r="O56" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P56" s="9"/>
       <c r="Q56" s="9"/>
       <c r="R56" s="9"/>
       <c r="Z56" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM56" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="AM56" s="11" t="s">
-        <v>195</v>
-      </c>
       <c r="AN56" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO56" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AR56" s="11" t="s">
         <v>101</v>
       </c>
       <c r="AT56" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="BB56" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="BC56" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="BD56" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="BE56" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="BF56" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="BL56" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="BB56" s="0" t="s">
+      <c r="BY56" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="BC56" s="0" t="s">
+      <c r="BZ56" s="0" t="s">
         <v>196</v>
-      </c>
-      <c r="BD56" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="BE56" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="BF56" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="BL56" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="BY56" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="BZ56" s="0" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F57" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G57" s="11"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c r="AM57" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN57" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO57" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="AT57" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="BB57" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="AN57" s="11" t="s">
+      <c r="BC57" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="AO57" s="11" t="s">
+      <c r="BD57" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="AT57" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="BB57" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="BC57" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="BD57" s="0" t="s">
-        <v>200</v>
-      </c>
       <c r="BE57" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BF57" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12632,31 +12629,31 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c r="AM58" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="AN58" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="AO58" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="AT58" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="AN58" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="AO58" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="AT58" s="11" t="s">
+      <c r="BB58" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="BB58" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="BC58" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BD58" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BE58" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BF58" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12667,7 +12664,7 @@
       <c r="AN59" s="11"/>
       <c r="AO59" s="11"/>
       <c r="AT59" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13007,28 +13004,28 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="F63" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="G63" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="C63" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="E63" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="F63" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="G63" s="0" t="s">
-        <v>206</v>
-      </c>
       <c r="H63" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -13168,7 +13165,7 @@
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M68" activeCellId="0" sqref="M68"/>
     </sheetView>
   </sheetViews>
@@ -13296,7 +13293,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
@@ -13326,7 +13323,7 @@
         <v>16</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="7" t="s">
@@ -13360,16 +13357,16 @@
         <v>9</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>208</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>209</v>
       </c>
       <c r="H2" s="10" t="n">
         <v>5</v>
@@ -13407,10 +13404,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H3" s="10" t="n">
         <v>5</v>
@@ -13448,10 +13445,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H4" s="10" t="n">
         <v>5</v>
@@ -13489,10 +13486,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H5" s="10" t="n">
         <v>5</v>
@@ -13530,10 +13527,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>213</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>214</v>
       </c>
       <c r="H6" s="10" t="n">
         <v>5</v>
@@ -13571,10 +13568,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H7" s="10" t="n">
         <v>5</v>
@@ -13612,10 +13609,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H8" s="10" t="n">
         <v>5</v>
@@ -13653,10 +13650,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H9" s="13" t="n">
         <v>5</v>
@@ -13694,10 +13691,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H10" s="10" t="n">
         <v>5</v>
@@ -13735,10 +13732,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>219</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>220</v>
       </c>
       <c r="H11" s="10" t="n">
         <v>5</v>
@@ -13776,10 +13773,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H12" s="10" t="n">
         <v>5</v>
@@ -13817,10 +13814,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H13" s="10" t="n">
         <v>5</v>
@@ -13858,10 +13855,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H14" s="10" t="n">
         <v>5</v>
@@ -13899,10 +13896,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H15" s="10" t="n">
         <v>5</v>
@@ -13940,10 +13937,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H16" s="10" t="n">
         <v>5</v>
@@ -13981,10 +13978,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H17" s="10" t="n">
         <v>5</v>
@@ -14022,10 +14019,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H18" s="10" t="n">
         <v>5</v>
@@ -14063,10 +14060,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B19" s="0" t="s">
         <v>228</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>229</v>
       </c>
       <c r="H19" s="10" t="n">
         <v>6</v>
@@ -14104,10 +14101,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H20" s="10" t="n">
         <v>6</v>
@@ -14145,10 +14142,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H21" s="10" t="n">
         <v>6</v>
@@ -14186,10 +14183,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H22" s="10" t="n">
         <v>6</v>
@@ -14227,10 +14224,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H23" s="10" t="n">
         <v>6</v>
@@ -14268,10 +14265,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H24" s="10" t="n">
         <v>5</v>
@@ -14309,10 +14306,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" s="0" t="s">
         <v>235</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>236</v>
       </c>
       <c r="H25" s="10" t="n">
         <v>7</v>
@@ -14350,10 +14347,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H26" s="10" t="n">
         <v>7</v>
@@ -14391,10 +14388,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H27" s="10" t="n">
         <v>7</v>
@@ -14432,10 +14429,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B28" s="0" t="s">
         <v>239</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>240</v>
       </c>
       <c r="H28" s="10" t="n">
         <v>5</v>
@@ -14473,10 +14470,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H29" s="10" t="n">
         <v>5</v>
@@ -14514,10 +14511,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H30" s="10" t="n">
         <v>5</v>
@@ -14555,10 +14552,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H31" s="10" t="n">
         <v>5</v>
@@ -15089,8 +15086,8 @@
   </sheetPr>
   <dimension ref="A1:AE63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15125,94 +15122,94 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>213</v>
-      </c>
       <c r="F1" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="J1" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="J1" s="20" t="s">
-        <v>219</v>
-      </c>
       <c r="K1" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="L1" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="O1" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="R1" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="R1" s="20" t="s">
-        <v>228</v>
-      </c>
       <c r="S1" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="T1" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="U1" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="V1" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="W1" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="W1" s="20" t="s">
+      <c r="X1" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="X1" s="20" t="s">
-        <v>235</v>
-      </c>
       <c r="Y1" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z1" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="AA1" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="AA1" s="20" t="s">
-        <v>239</v>
-      </c>
       <c r="AB1" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC1" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AD1" s="20" t="s">
         <v>242</v>
-      </c>
-      <c r="AD1" s="20" t="s">
-        <v>243</v>
       </c>
       <c r="AE1" s="20"/>
     </row>
@@ -15414,42 +15411,42 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="X5" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="Z5" s="0" t="s">
         <v>244</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="S5" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="T5" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="U5" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="V5" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="X5" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z5" s="0" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H11" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15576,76 +15573,76 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W14" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="X14" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Y14" s="0" t="s">
         <v>133</v>
@@ -15740,10 +15737,10 @@
         <v>133</v>
       </c>
       <c r="Y15" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Z15" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AA15" s="0" t="s">
         <v>134</v>
@@ -16070,88 +16067,88 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="E22" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="I22" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="J22" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="N22" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="E22" s="0" t="s">
+      <c r="O22" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q22" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="S22" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="T22" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="U22" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="W22" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="X22" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="Y22" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="I22" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="J22" s="0" t="s">
+      <c r="Z22" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="0" t="s">
+      <c r="AA22" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="L22" s="0" t="s">
+      <c r="AC22" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="M22" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="N22" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="O22" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="P22" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q22" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="R22" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="S22" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="T22" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="U22" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="W22" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="X22" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y22" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z22" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA22" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC22" s="0" t="s">
-        <v>155</v>
-      </c>
       <c r="AD22" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16159,39 +16156,39 @@
         <v>136</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N23" s="0" t="s">
         <v>136</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T23" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W23" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X23" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Y23" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z23" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16318,276 +16315,276 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="H27" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="I27" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="J27" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="M27" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="N27" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="O27" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q27" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R27" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="S27" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="T27" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="U27" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="X27" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y27" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="Z27" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="H27" s="0" t="s">
+      <c r="AA27" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="I27" s="0" t="s">
+      <c r="AB27" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="J27" s="0" t="s">
+      <c r="AC27" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="K27" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="L27" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="M27" s="0" t="s">
+      <c r="AD27" s="21" t="s">
         <v>249</v>
-      </c>
-      <c r="N27" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="O27" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="P27" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q27" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="R27" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="S27" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="T27" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="U27" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="X27" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="Y27" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z27" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA27" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="AB27" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="AC27" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD27" s="21" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="J28" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="K28" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="L28" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="O28" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="P28" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="Q28" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="J28" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="K28" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="L28" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="O28" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="P28" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q28" s="0" t="s">
-        <v>250</v>
-      </c>
       <c r="R28" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S28" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T28" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="X28" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Y28" s="21"/>
       <c r="Z28" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA28" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="AA28" s="21" t="s">
-        <v>249</v>
-      </c>
       <c r="AB28" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AD28" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="O29" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q29" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="R29" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="S29" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="T29" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U29" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="X29" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA29" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="AB29" s="22" t="s">
         <v>251</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="L29" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="O29" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="P29" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q29" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="R29" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="S29" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="T29" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="U29" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="X29" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="AA29" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="AB29" s="22" t="s">
-        <v>252</v>
       </c>
       <c r="AC29" s="21"/>
       <c r="AD29" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J30" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O30" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P30" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q30" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Y30" s="22"/>
       <c r="Z30" s="22"/>
       <c r="AA30" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AB30" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AC30" s="21"/>
       <c r="AD30" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J31" s="0" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q31" s="0" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AA31" s="0" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AB31" s="0" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AC31" s="21"/>
       <c r="AD31" s="0" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16733,177 +16730,177 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P37" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q37" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R37" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S37" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="T37" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="U37" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="V37" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W37" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="X37" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Y37" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Z37" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AA37" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB37" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AC37" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AD37" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="O38" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="P38" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q38" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="R38" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="S38" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="T38" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="U38" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="V38" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="W38" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="X38" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y38" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="Z38" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="C38" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="I38" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="J38" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="K38" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="L38" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O38" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="P38" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q38" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="R38" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="S38" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="T38" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="U38" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="V38" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="W38" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="X38" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="Y38" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="Z38" s="0" t="s">
-        <v>255</v>
-      </c>
       <c r="AA38" s="0" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AB38" s="0" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AD38" s="0" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16913,7 +16910,7 @@
       <c r="P39" s="23"/>
       <c r="Q39" s="23"/>
       <c r="X39" s="0" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17047,94 +17044,94 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O42" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P42" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q42" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="R42" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S42" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="T42" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U42" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="V42" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="W42" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X42" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Y42" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Z42" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AA42" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AB42" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC42" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AD42" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17268,95 +17265,95 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="E45" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="F45" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="E45" s="11" t="s">
+      <c r="J45" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="K45" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="J45" s="11" t="s">
+      <c r="R45" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="K45" s="11" t="s">
+      <c r="S45" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="R45" s="11" t="s">
+      <c r="T45" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="U45" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="V45" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="X45" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="S45" s="11" t="s">
+      <c r="Y45" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="T45" s="11" t="s">
+      <c r="Z45" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="U45" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="V45" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="X45" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y45" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z45" s="11" t="s">
-        <v>261</v>
-      </c>
       <c r="AA45" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="R46" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="S46" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="T46" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="U46" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="X46" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="Y46" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="Z46" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="R46" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="S46" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="T46" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="U46" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="X46" s="11" t="s">
+      <c r="AA46" s="11" t="s">
         <v>263</v>
-      </c>
-      <c r="Y46" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="Z46" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA46" s="11" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R47" s="0" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="X47" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17622,105 +17619,105 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B53" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="C53" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="R53" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="S53" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="T53" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="U53" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="V53" s="11" t="s">
         <v>268</v>
-      </c>
-      <c r="R53" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="S53" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="T53" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="U53" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="V53" s="11" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B54" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="B54" s="11" t="s">
-        <v>268</v>
-      </c>
       <c r="C54" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="R54" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="S54" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="S54" s="11" t="s">
-        <v>268</v>
-      </c>
       <c r="T54" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="U54" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="R55" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S55" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B56" s="11" t="s">
         <v>270</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>271</v>
       </c>
       <c r="D56" s="11"/>
       <c r="R56" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="S56" s="11" t="s">
         <v>270</v>
-      </c>
-      <c r="S56" s="11" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B57" s="11" t="s">
         <v>271</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>272</v>
       </c>
       <c r="D57" s="11"/>
       <c r="R57" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="S57" s="11" t="s">
         <v>271</v>
-      </c>
-      <c r="S57" s="11" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B58" s="11"/>
       <c r="D58" s="11"/>
       <c r="R58" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S58" s="11"/>
     </row>
@@ -17759,7 +17756,7 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -17770,10 +17767,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>273</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17781,7 +17778,7 @@
         <v>63</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17789,7 +17786,7 @@
         <v>107</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17797,7 +17794,7 @@
         <v>89</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17805,7 +17802,7 @@
         <v>96</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17813,7 +17810,7 @@
         <v>80</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17821,7 +17818,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17862,7 +17859,7 @@
   </sheetPr>
   <dimension ref="A1:AMD49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N53" activeCellId="0" sqref="N53"/>
     </sheetView>
   </sheetViews>
@@ -17890,44 +17887,44 @@
         <v>13</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="E1" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="29" t="s">
         <v>278</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>279</v>
       </c>
       <c r="G1" s="29" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="29"/>
       <c r="I1" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="J1" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="K1" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="L1" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="M1" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="N1" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="N1" s="31" t="s">
-        <v>285</v>
-      </c>
       <c r="O1" s="0" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="P1" s="0"/>
       <c r="Q1" s="0"/>
@@ -18935,10 +18932,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C2" s="34" t="n">
         <v>12</v>
@@ -18965,7 +18962,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L2" s="37" t="n">
         <v>0</v>
@@ -19988,10 +19985,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C3" s="41" t="n">
         <v>10</v>
@@ -20018,7 +20015,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L3" s="44" t="n">
         <v>0</v>
@@ -21038,10 +21035,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C4" s="41" t="n">
         <v>18</v>
@@ -22088,10 +22085,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="45" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C5" s="41" t="n">
         <v>15</v>
@@ -22118,7 +22115,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L5" s="44" t="n">
         <v>0</v>
@@ -23138,10 +23135,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C6" s="41" t="n">
         <v>6</v>
@@ -23168,7 +23165,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L6" s="44" t="n">
         <v>0</v>
@@ -24188,10 +24185,10 @@
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C7" s="41" t="n">
         <v>12</v>
@@ -24218,7 +24215,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="43" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L7" s="44" t="n">
         <v>0</v>
@@ -25238,10 +25235,10 @@
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C8" s="41" t="n">
         <v>18</v>
@@ -25271,7 +25268,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="44" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M8" s="44" t="n">
         <v>0</v>
@@ -26288,10 +26285,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C9" s="41" t="n">
         <v>8</v>
@@ -26306,7 +26303,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H9" s="43" t="n">
         <v>4</v>
@@ -27338,10 +27335,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C10" s="41" t="n">
         <v>15</v>
@@ -27368,7 +27365,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L10" s="44" t="n">
         <v>0</v>
@@ -28388,10 +28385,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C11" s="41" t="n">
         <v>6</v>
@@ -28418,10 +28415,10 @@
         <v>1</v>
       </c>
       <c r="K11" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="L11" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="L11" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="M11" s="44" t="n">
         <v>0</v>
@@ -29438,10 +29435,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C12" s="41" t="n">
         <v>6</v>
@@ -29468,13 +29465,13 @@
         <v>0</v>
       </c>
       <c r="K12" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="L12" s="44" t="s">
         <v>292</v>
       </c>
-      <c r="L12" s="44" t="s">
+      <c r="M12" s="44" t="s">
         <v>293</v>
-      </c>
-      <c r="M12" s="44" t="s">
-        <v>294</v>
       </c>
       <c r="N12" s="44" t="n">
         <v>0</v>
@@ -30488,10 +30485,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C13" s="41" t="n">
         <v>12</v>
@@ -30518,7 +30515,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L13" s="44" t="n">
         <v>0</v>
@@ -31538,10 +31535,10 @@
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C14" s="41" t="n">
         <v>12</v>
@@ -31568,10 +31565,10 @@
         <v>1</v>
       </c>
       <c r="K14" s="44" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L14" s="44" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M14" s="44" t="n">
         <v>0</v>
@@ -32588,10 +32585,10 @@
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C15" s="41" t="n">
         <v>10</v>
@@ -32618,7 +32615,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L15" s="44" t="n">
         <v>0</v>
@@ -33641,7 +33638,7 @@
         <v>136</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C16" s="41" t="n">
         <v>12</v>
@@ -33668,7 +33665,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L16" s="44" t="n">
         <v>0</v>
@@ -34688,10 +34685,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C17" s="41" t="n">
         <v>10</v>
@@ -34718,10 +34715,10 @@
         <v>1</v>
       </c>
       <c r="K17" s="44" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L17" s="44" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M17" s="44" t="n">
         <v>0</v>
@@ -35738,10 +35735,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C18" s="41" t="n">
         <v>6</v>
@@ -35756,7 +35753,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="43" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H18" s="43" t="n">
         <v>4</v>
@@ -36791,7 +36788,7 @@
         <v>138</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C19" s="41" t="n">
         <v>6</v>
@@ -36818,7 +36815,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L19" s="44" t="n">
         <v>0</v>
@@ -37838,10 +37835,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C20" s="41" t="n">
         <v>6</v>
@@ -37868,10 +37865,10 @@
         <v>1</v>
       </c>
       <c r="K20" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="L20" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="L20" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="M20" s="44" t="n">
         <v>0</v>
@@ -38891,7 +38888,7 @@
         <v>132</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C21" s="53" t="n">
         <v>0</v>
@@ -38906,7 +38903,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H21" s="55" t="n">
         <v>1</v>
@@ -38918,7 +38915,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L21" s="56"/>
       <c r="M21" s="56" t="n">
@@ -39936,10 +39933,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C22" s="53" t="n">
         <v>0</v>
@@ -39966,16 +39963,16 @@
         <v>1</v>
       </c>
       <c r="K22" s="56" t="s">
+        <v>296</v>
+      </c>
+      <c r="L22" s="56" t="s">
         <v>297</v>
       </c>
-      <c r="L22" s="56" t="s">
+      <c r="M22" s="56" t="s">
         <v>298</v>
       </c>
-      <c r="M22" s="56" t="s">
+      <c r="N22" s="56" t="s">
         <v>299</v>
-      </c>
-      <c r="N22" s="56" t="s">
-        <v>300</v>
       </c>
       <c r="O22" s="0" t="n">
         <v>25</v>
@@ -40986,10 +40983,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C23" s="53" t="n">
         <v>0</v>
@@ -41004,7 +41001,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="55" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H23" s="55" t="n">
         <v>3</v>
@@ -41016,16 +41013,16 @@
         <v>2</v>
       </c>
       <c r="K23" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L23" s="56" t="s">
+        <v>301</v>
+      </c>
+      <c r="M23" s="56" t="s">
+        <v>298</v>
+      </c>
+      <c r="N23" s="56" t="s">
         <v>302</v>
-      </c>
-      <c r="M23" s="56" t="s">
-        <v>299</v>
-      </c>
-      <c r="N23" s="56" t="s">
-        <v>303</v>
       </c>
       <c r="O23" s="0" t="n">
         <v>45</v>
@@ -42036,10 +42033,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C24" s="53" t="n">
         <v>0</v>
@@ -42064,10 +42061,10 @@
         <v>2</v>
       </c>
       <c r="K24" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L24" s="56" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M24" s="56" t="n">
         <v>0</v>
@@ -43084,10 +43081,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C25" s="53" t="n">
         <v>0</v>
@@ -43102,7 +43099,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="55" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H25" s="55" t="n">
         <v>2</v>
@@ -43114,16 +43111,16 @@
         <v>2</v>
       </c>
       <c r="K25" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L25" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M25" s="56" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N25" s="56" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O25" s="0" t="n">
         <v>35</v>
@@ -44137,7 +44134,7 @@
         <v>133</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C26" s="53" t="n">
         <v>0</v>
@@ -44164,10 +44161,10 @@
         <v>1</v>
       </c>
       <c r="K26" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L26" s="56" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M26" s="56"/>
       <c r="N26" s="56" t="n">
@@ -45185,7 +45182,7 @@
         <v>142</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C27" s="53" t="n">
         <v>0</v>
@@ -45200,7 +45197,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="55" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H27" s="55" t="n">
         <v>1</v>
@@ -45212,10 +45209,10 @@
         <v>1</v>
       </c>
       <c r="K27" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L27" s="56" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M27" s="56" t="s">
         <v>142</v>
@@ -46232,10 +46229,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B28" s="52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C28" s="53" t="n">
         <v>0</v>
@@ -46250,7 +46247,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="55" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H28" s="55" t="n">
         <v>1</v>
@@ -46262,16 +46259,16 @@
         <v>1</v>
       </c>
       <c r="K28" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L28" s="56" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M28" s="56" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N28" s="56" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>25</v>
@@ -47282,10 +47279,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="51" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C29" s="53" t="n">
         <v>0</v>
@@ -47300,7 +47297,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="55" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H29" s="55" t="n">
         <v>1</v>
@@ -47312,10 +47309,10 @@
         <v>1</v>
       </c>
       <c r="K29" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L29" s="56" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M29" s="56" t="n">
         <v>0</v>
@@ -48335,7 +48332,7 @@
         <v>141</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C30" s="53" t="n">
         <v>0</v>
@@ -48362,10 +48359,10 @@
         <v>1</v>
       </c>
       <c r="K30" s="56" t="s">
+        <v>296</v>
+      </c>
+      <c r="L30" s="56" t="s">
         <v>297</v>
-      </c>
-      <c r="L30" s="56" t="s">
-        <v>298</v>
       </c>
       <c r="M30" s="56" t="n">
         <v>0</v>
@@ -49382,10 +49379,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B31" s="52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C31" s="53" t="n">
         <v>0</v>
@@ -49400,7 +49397,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="55" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H31" s="55" t="n">
         <v>1</v>
@@ -49412,10 +49409,10 @@
         <v>1</v>
       </c>
       <c r="K31" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L31" s="56" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M31" s="56" t="n">
         <v>0</v>
@@ -50435,7 +50432,7 @@
         <v>139</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C32" s="53" t="n">
         <v>0</v>
@@ -50462,13 +50459,13 @@
         <v>1</v>
       </c>
       <c r="K32" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L32" s="56" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M32" s="56" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N32" s="56" t="s">
         <v>139</v>
@@ -51485,7 +51482,7 @@
         <v>140</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C33" s="53" t="n">
         <v>0</v>
@@ -51500,7 +51497,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="55" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H33" s="55" t="n">
         <v>1</v>
@@ -51512,10 +51509,10 @@
         <v>1</v>
       </c>
       <c r="K33" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L33" s="56" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M33" s="56" t="n">
         <v>0</v>
@@ -52535,7 +52532,7 @@
         <v>137</v>
       </c>
       <c r="B34" s="52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C34" s="53" t="n">
         <v>0</v>
@@ -52562,7 +52559,7 @@
         <v>2</v>
       </c>
       <c r="K34" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L34" s="56" t="n">
         <v>0</v>
@@ -53585,7 +53582,7 @@
         <v>135</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C35" s="53" t="n">
         <v>0</v>
@@ -53612,10 +53609,10 @@
         <v>2</v>
       </c>
       <c r="K35" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L35" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M35" s="56" t="n">
         <v>0</v>
@@ -54632,10 +54629,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B36" s="52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C36" s="53" t="n">
         <v>0</v>
@@ -54650,7 +54647,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="55" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H36" s="55" t="n">
         <v>2</v>
@@ -54662,16 +54659,16 @@
         <v>2</v>
       </c>
       <c r="K36" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L36" s="56" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M36" s="56" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N36" s="56" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O36" s="0" t="n">
         <v>40</v>
@@ -55682,10 +55679,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="51" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B37" s="52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C37" s="53" t="n">
         <v>0</v>
@@ -55712,13 +55709,13 @@
         <v>1</v>
       </c>
       <c r="K37" s="56" t="s">
+        <v>296</v>
+      </c>
+      <c r="L37" s="56" t="s">
         <v>297</v>
       </c>
-      <c r="L37" s="56" t="s">
-        <v>298</v>
-      </c>
       <c r="M37" s="56" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N37" s="56" t="n">
         <v>0</v>
@@ -56735,7 +56732,7 @@
         <v>143</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C38" s="53" t="n">
         <v>0</v>
@@ -56750,7 +56747,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="55" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H38" s="55" t="n">
         <v>1</v>
@@ -56762,16 +56759,16 @@
         <v>1</v>
       </c>
       <c r="K38" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L38" s="56" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M38" s="56" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N38" s="56" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O38" s="0" t="n">
         <v>30</v>
@@ -57785,7 +57782,7 @@
         <v>134</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C39" s="53" t="n">
         <v>0</v>
@@ -57812,13 +57809,13 @@
         <v>1</v>
       </c>
       <c r="K39" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L39" s="56" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M39" s="56" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N39" s="56" t="n">
         <v>0</v>
@@ -58835,7 +58832,7 @@
         <v>131</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C40" s="53" t="n">
         <v>0</v>
@@ -58862,10 +58859,10 @@
         <v>1</v>
       </c>
       <c r="K40" s="56" t="s">
+        <v>296</v>
+      </c>
+      <c r="L40" s="56" t="s">
         <v>297</v>
-      </c>
-      <c r="L40" s="56" t="s">
-        <v>298</v>
       </c>
       <c r="M40" s="56" t="n">
         <v>0</v>
@@ -59882,10 +59879,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="51" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B41" s="52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C41" s="53" t="n">
         <v>0</v>
@@ -59912,7 +59909,7 @@
         <v>1</v>
       </c>
       <c r="K41" s="56" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L41" s="56" t="n">
         <v>0</v>
@@ -60932,10 +60929,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B42" s="52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C42" s="53" t="n">
         <v>0</v>
@@ -60950,7 +60947,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="55" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H42" s="55" t="n">
         <v>3</v>
@@ -60962,16 +60959,16 @@
         <v>2</v>
       </c>
       <c r="K42" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L42" s="56" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M42" s="56" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N42" s="56" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O42" s="0" t="n">
         <v>0</v>
@@ -61982,10 +61979,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B43" s="52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C43" s="53" t="n">
         <v>0</v>
@@ -62000,7 +61997,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="55" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H43" s="55" t="n">
         <v>2</v>
@@ -62012,13 +62009,13 @@
         <v>2</v>
       </c>
       <c r="K43" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L43" s="56" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M43" s="56" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N43" s="56" t="n">
         <v>0</v>
@@ -63032,10 +63029,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C44" s="53" t="n">
         <v>0</v>
@@ -63050,7 +63047,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="55" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H44" s="55" t="n">
         <v>3</v>
@@ -63062,16 +63059,16 @@
         <v>2</v>
       </c>
       <c r="K44" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L44" s="56" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M44" s="56" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N44" s="56" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O44" s="0" t="n">
         <v>45</v>
@@ -64101,7 +64098,7 @@
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -64115,12 +64112,12 @@
         <v>13</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-5</v>
@@ -64128,7 +64125,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>30</v>
@@ -64136,7 +64133,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>5</v>
@@ -64144,7 +64141,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>5</v>
@@ -64152,7 +64149,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>5</v>
@@ -64168,7 +64165,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>30</v>
@@ -64176,7 +64173,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -64184,7 +64181,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>5</v>
@@ -64192,7 +64189,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>5</v>
@@ -64200,7 +64197,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>3</v>
@@ -64216,7 +64213,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -64224,7 +64221,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>5</v>
@@ -64232,7 +64229,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>5</v>
@@ -64240,7 +64237,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>5</v>
@@ -64248,7 +64245,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>10</v>
@@ -64256,7 +64253,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>20</v>
@@ -64264,7 +64261,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>5</v>
@@ -64272,7 +64269,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>10</v>
@@ -64280,7 +64277,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>5</v>
@@ -64288,7 +64285,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>5</v>
@@ -64296,7 +64293,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -64304,7 +64301,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -64312,7 +64309,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\245439\dv\warhammer-list-builder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F2D119-D4C4-40BA-846A-A795DF5BB3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A14CBA-FD3C-4A85-A69F-29B70AC7B63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13890" yWindow="-16365" windowWidth="29040" windowHeight="15840" tabRatio="840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fantasy_Baseline_Stats" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2796" uniqueCount="451">
   <si>
     <t>M</t>
   </si>
@@ -7832,8 +7832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CL89"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="AE8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="12.75" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
@@ -7917,6 +7917,7 @@
     <col min="81" max="81" width="24" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="85" max="85" width="34.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9621,45 +9622,530 @@
       <c r="CL12" s="34"/>
     </row>
     <row r="13" spans="1:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L13" s="1"/>
-      <c r="M13" t="s">
-        <v>140</v>
-      </c>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
+      <c r="J13" s="42" t="str">
+        <f>CONCATENATE(J$1,"_","Secondary_Weaponry")</f>
+        <v>Empire_State_Troop_Secondary_Weaponry</v>
+      </c>
+      <c r="K13" s="42" t="str">
+        <f t="shared" ref="K13:BY20" si="4">CONCATENATE(K$1,"_","Secondary_Weaponry")</f>
+        <v>Empire_State_Troop_Skirmisher_Secondary_Weaponry</v>
+      </c>
+      <c r="L13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Reiksguard_Secondary_Weaponry</v>
+      </c>
+      <c r="M13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Empire_Captain_Secondary_Weaponry</v>
+      </c>
+      <c r="N13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Master_Engineer_Secondary_Weaponry</v>
+      </c>
+      <c r="O13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Greatsword_Secondary_Weaponry</v>
+      </c>
+      <c r="P13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Halfling_Secondary_Weaponry</v>
+      </c>
+      <c r="Q13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Mounted_Empire_Captain_Secondary_Weaponry</v>
+      </c>
+      <c r="R13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Mounted_Reiksguard_Secondary_Weaponry</v>
+      </c>
+      <c r="S13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Witch_Hunter_Secondary_Weaponry</v>
+      </c>
+      <c r="T13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Swordmaster_Secondary_Weaponry</v>
+      </c>
+      <c r="U13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>White_Lion_Secondary_Weaponry</v>
+      </c>
+      <c r="V13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Phoenix_Guard_Secondary_Weaponry</v>
+      </c>
+      <c r="W13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Archer_Secondary_Weaponry</v>
+      </c>
+      <c r="X13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Noble_Secondary_Weaponry</v>
+      </c>
+      <c r="Y13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Mounted_Noble_Secondary_Weaponry</v>
+      </c>
+      <c r="Z13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Silver_Helm_Secondary_Weaponry</v>
+      </c>
+      <c r="AA13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Shadow_Warrior_Secondary_Weaponry</v>
+      </c>
+      <c r="AB13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Sea_Guard_Secondary_Weaponry</v>
+      </c>
+      <c r="AC13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Orc_Boy_Secondary_Weaponry</v>
+      </c>
+      <c r="AD13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Big_Un_Secondary_Weaponry</v>
+      </c>
+      <c r="AE13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Black_Orc_Secondary_Weaponry</v>
+      </c>
+      <c r="AF13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Savage_orc_Secondary_Weaponry</v>
+      </c>
+      <c r="AG13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Savage_Orc_Big_Un_Secondary_Weaponry</v>
+      </c>
+      <c r="AH13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Orc_Big_Boss_Secondary_Weaponry</v>
+      </c>
+      <c r="AI13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Arrer_Boy_Secondary_Weaponry</v>
+      </c>
+      <c r="AJ13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Night_Goblin_Secondary_Weaponry</v>
+      </c>
+      <c r="AK13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Night_Goblin_Big_Boss_Secondary_Weaponry</v>
+      </c>
+      <c r="AL13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Mounted_Night_Goblin_Big_Boss_Secondary_Weaponry</v>
+      </c>
+      <c r="AM13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Troll_Secondary_Weaponry</v>
+      </c>
+      <c r="AN13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Peasant_Secondary_Weaponry</v>
+      </c>
+      <c r="AO13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Bowman_Secondary_Weaponry</v>
+      </c>
+      <c r="AP13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Brettonian_Foot_Knight_Secondary_Weaponry</v>
+      </c>
+      <c r="AQ13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Mounted_Brettonian_Knight_Secondary_Weaponry</v>
+      </c>
+      <c r="AR13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Brettonian_Knight_Secondary_Weaponry</v>
+      </c>
+      <c r="AS13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Duke_Secondary_Weaponry</v>
+      </c>
+      <c r="AT13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Skavenslave_Secondary_Weaponry</v>
+      </c>
+      <c r="AU13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Clan_Rat_Secondary_Weaponry</v>
+      </c>
+      <c r="AV13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Gutter_Runner_Secondary_Weaponry</v>
+      </c>
+      <c r="AW13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Storm_Vermin_Secondary_Weaponry</v>
+      </c>
+      <c r="AX13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Rat_Ogre_Secondary_Weaponry</v>
+      </c>
+      <c r="AY13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Claw_Leader_Secondary_Weaponry</v>
+      </c>
+      <c r="AZ13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Mounted_Claw_Leader_Secondary_Weaponry</v>
+      </c>
+      <c r="BA13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Dwarf_Warrior_Secondary_Weaponry</v>
+      </c>
+      <c r="BB13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Slayer_Secondary_Weaponry</v>
+      </c>
+      <c r="BC13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Ironbreaker_Secondary_Weaponry</v>
+      </c>
+      <c r="BD13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Hammerer_Secondary_Weaponry</v>
+      </c>
+      <c r="BE13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Dwarf_Captain_Secondary_Weaponry</v>
+      </c>
+      <c r="BF13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Mounted_Warrior_of_Chaos_Secondary_Weaponry</v>
+      </c>
+      <c r="BG13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Warrior_of_Chaos_Secondary_Weaponry</v>
+      </c>
+      <c r="BH13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Marauder_Secondary_Weaponry</v>
+      </c>
+      <c r="BI13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Mounted_Exalted_Champion_Secondary_Weaponry</v>
+      </c>
+      <c r="BJ13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Exalted_Champion_Secondary_Weaponry</v>
+      </c>
+      <c r="BK13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Dark_Elf_Warrior_Secondary_Weaponry</v>
+      </c>
+      <c r="BL13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Dreadknight_Secondary_Weaponry</v>
+      </c>
+      <c r="BM13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Witch_Elf_Secondary_Weaponry</v>
+      </c>
+      <c r="BN13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Dark_Elf_Corsair_Secondary_Weaponry</v>
+      </c>
+      <c r="BO13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Executioner_Secondary_Weaponry</v>
+      </c>
+      <c r="BP13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Shade_Secondary_Weaponry</v>
+      </c>
+      <c r="BQ13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Mounted_Dark_Elf_Master_Secondary_Weaponry</v>
+      </c>
+      <c r="BR13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Dark_Elf_Master_Secondary_Weaponry</v>
+      </c>
+      <c r="BS13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Cathayan_Captain_Secondary_Weaponry</v>
+      </c>
+      <c r="BT13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Mounted_Cathayan_Captain_Secondary_Weaponry</v>
+      </c>
+      <c r="BU13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Dragon_Cavalry_Secondary_Weaponry</v>
+      </c>
+      <c r="BV13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Imperial_Infantry_Secondary_Weaponry</v>
+      </c>
+      <c r="BW13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Levy-Infantry_Secondary_Weaponry</v>
+      </c>
+      <c r="BX13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Dragonblade_Secondary_Weaponry</v>
+      </c>
+      <c r="BY13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>Imperial_Guard_Secondary_Weaponry</v>
+      </c>
+      <c r="BZ13" s="42" t="str">
+        <f t="shared" ref="BZ13:CE20" si="5">CONCATENATE(BZ$1,"_","Secondary_Weaponry")</f>
+        <v>Temple_Dog_Secondary_Weaponry</v>
+      </c>
+      <c r="CA13" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>Hatamoto_Secondary_Weaponry</v>
+      </c>
+      <c r="CB13" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>Mounted_Hatamoto_Secondary_Weaponry</v>
+      </c>
+      <c r="CC13" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>Samurai_Secondary_Weaponry</v>
+      </c>
+      <c r="CD13" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>Mounted_Samurai_Secondary_Weaponry</v>
+      </c>
+      <c r="CE13" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>Ashiguru_Secondary_Weaponry</v>
+      </c>
+      <c r="CF13" s="42" t="str">
+        <f>CONCATENATE(CF$1,"_","Secondary_Weaponry")</f>
+        <v>Nipponese_Leves_Secondary_Weaponry</v>
+      </c>
       <c r="CG13" s="35" t="str">
-        <f t="shared" ref="CG13:CL13" si="4">CONCATENATE(CG$1,"_","Secondary_Weaponry")</f>
+        <f t="shared" ref="CG13:CL13" si="6">CONCATENATE(CG$1,"_","Secondary_Weaponry")</f>
         <v>Jarl_Secondary_Weaponry</v>
       </c>
       <c r="CH13" s="35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Hersir_Secondary_Weaponry</v>
       </c>
       <c r="CI13" s="35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Hirdmen_Secondary_Weaponry</v>
       </c>
       <c r="CJ13" s="35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Shield_Maiden_Secondary_Weaponry</v>
       </c>
       <c r="CK13" s="35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Berserker_Secondary_Weaponry</v>
       </c>
       <c r="CL13" s="35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Bondi_Secondary_Weaponry</v>
       </c>
     </row>
     <row r="14" spans="1:90" ht="15" x14ac:dyDescent="0.25">
-      <c r="L14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="U14" s="1"/>
+      <c r="J14" t="s">
+        <v>170</v>
+      </c>
+      <c r="K14" t="s">
+        <v>170</v>
+      </c>
+      <c r="L14" t="s">
+        <v>168</v>
+      </c>
+      <c r="M14" t="s">
+        <v>170</v>
+      </c>
+      <c r="N14" t="s">
+        <v>168</v>
+      </c>
+      <c r="O14" s="43"/>
+      <c r="P14" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>168</v>
+      </c>
+      <c r="R14" t="s">
+        <v>168</v>
+      </c>
+      <c r="S14" t="s">
+        <v>129</v>
+      </c>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="X14" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>168</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>168</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>129</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>168</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>168</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>168</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>168</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>168</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>168</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>168</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>168</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>168</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>168</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>327</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>129</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>327</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>168</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>168</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>168</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>168</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>168</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>168</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>168</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>327</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>327</v>
+      </c>
+      <c r="CC14" t="s">
+        <v>169</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>327</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>169</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>327</v>
+      </c>
       <c r="CG14" s="36" t="s">
         <v>168</v>
       </c>
@@ -9680,13 +10166,177 @@
       </c>
     </row>
     <row r="15" spans="1:90" ht="15" x14ac:dyDescent="0.25">
-      <c r="L15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="U15" s="1"/>
+      <c r="J15" t="s">
+        <v>168</v>
+      </c>
+      <c r="K15" t="s">
+        <v>168</v>
+      </c>
+      <c r="L15" t="s">
+        <v>129</v>
+      </c>
+      <c r="M15" t="s">
+        <v>168</v>
+      </c>
+      <c r="N15" t="s">
+        <v>327</v>
+      </c>
+      <c r="P15" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>129</v>
+      </c>
+      <c r="R15" t="s">
+        <v>129</v>
+      </c>
+      <c r="S15" t="s">
+        <v>327</v>
+      </c>
+      <c r="X15" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>327</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>327</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>327</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>327</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>129</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>129</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>327</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>129</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>129</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>129</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>129</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>129</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>129</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>327</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>327</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>327</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>327</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>327</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>129</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>129</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>129</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>129</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>129</v>
+      </c>
+      <c r="CC15" t="s">
+        <v>327</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>327</v>
+      </c>
       <c r="CG15" s="34" t="s">
         <v>231</v>
       </c>
@@ -9707,13 +10357,165 @@
       </c>
     </row>
     <row r="16" spans="1:90" ht="15" x14ac:dyDescent="0.25">
-      <c r="L16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="J16" t="s">
+        <v>128</v>
+      </c>
+      <c r="K16" t="s">
+        <v>129</v>
+      </c>
+      <c r="L16" t="s">
+        <v>327</v>
+      </c>
+      <c r="M16" t="s">
+        <v>129</v>
+      </c>
+      <c r="N16" t="s">
+        <v>128</v>
+      </c>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
+      <c r="Q16" t="s">
+        <v>327</v>
+      </c>
+      <c r="R16" t="s">
+        <v>327</v>
+      </c>
+      <c r="S16" t="s">
+        <v>128</v>
+      </c>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="X16" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>327</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>327</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>327</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>327</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>327</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>327</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>327</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>327</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>327</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>327</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>327</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>327</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>327</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>327</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>327</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>327</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>327</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>327</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>327</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>327</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>327</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>327</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>327</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>327</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>327</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>327</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>327</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>128</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>128</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>136</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>136</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>327</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>327</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>327</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>327</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>327</v>
+      </c>
       <c r="CG16" s="34" t="s">
         <v>327</v>
       </c>
@@ -9734,16 +10536,129 @@
       </c>
     </row>
     <row r="17" spans="10:90" ht="15" x14ac:dyDescent="0.25">
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="O17" s="1"/>
+      <c r="J17" t="s">
+        <v>129</v>
+      </c>
+      <c r="K17" t="s">
+        <v>327</v>
+      </c>
+      <c r="L17" t="s">
+        <v>136</v>
+      </c>
+      <c r="M17" t="s">
+        <v>327</v>
+      </c>
       <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
+      <c r="Q17" t="s">
+        <v>136</v>
+      </c>
+      <c r="R17" t="s">
+        <v>136</v>
+      </c>
       <c r="T17" s="29"/>
       <c r="U17" s="29"/>
+      <c r="AC17" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>136</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>136</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>136</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>136</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>136</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>128</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>128</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>128</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>128</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>136</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>136</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>136</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>136</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>128</v>
+      </c>
       <c r="CG17" s="34" t="s">
         <v>128</v>
       </c>
@@ -9762,16 +10677,95 @@
       <c r="CL17" s="34"/>
     </row>
     <row r="18" spans="10:90" ht="15" x14ac:dyDescent="0.25">
-      <c r="J18" s="1"/>
+      <c r="J18" t="s">
+        <v>136</v>
+      </c>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="L18" t="s">
+        <v>128</v>
+      </c>
+      <c r="M18" t="s">
+        <v>136</v>
+      </c>
       <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
+      <c r="Q18" t="s">
+        <v>128</v>
+      </c>
+      <c r="R18" t="s">
+        <v>128</v>
+      </c>
       <c r="S18" s="1"/>
       <c r="T18" s="29"/>
       <c r="U18" s="29"/>
+      <c r="AC18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>128</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>128</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>128</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>128</v>
+      </c>
+      <c r="BV18" t="s">
+        <v>128</v>
+      </c>
       <c r="CG18" s="34"/>
       <c r="CH18" s="34"/>
       <c r="CI18" s="34"/>
@@ -9780,10 +10774,14 @@
       <c r="CL18" s="34"/>
     </row>
     <row r="19" spans="10:90" ht="15" x14ac:dyDescent="0.25">
-      <c r="J19" s="1"/>
+      <c r="J19" t="s">
+        <v>327</v>
+      </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="O19" s="1"/>
+      <c r="M19" t="s">
+        <v>128</v>
+      </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -9797,307 +10795,16 @@
       <c r="CK19" s="34"/>
       <c r="CL19" s="34"/>
     </row>
-    <row r="20" spans="10:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J20" s="42" t="str">
-        <f>CONCATENATE(J$1,"_","Secondary_Weaponry")</f>
-        <v>Empire_State_Troop_Secondary_Weaponry</v>
-      </c>
-      <c r="K20" s="42" t="str">
-        <f t="shared" ref="K20:BY20" si="5">CONCATENATE(K$1,"_","Secondary_Weaponry")</f>
-        <v>Empire_State_Troop_Skirmisher_Secondary_Weaponry</v>
-      </c>
-      <c r="L20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Reiksguard_Secondary_Weaponry</v>
-      </c>
-      <c r="M20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Empire_Captain_Secondary_Weaponry</v>
-      </c>
-      <c r="N20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Master_Engineer_Secondary_Weaponry</v>
-      </c>
-      <c r="O20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Greatsword_Secondary_Weaponry</v>
-      </c>
-      <c r="P20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Halfling_Secondary_Weaponry</v>
-      </c>
-      <c r="Q20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Mounted_Empire_Captain_Secondary_Weaponry</v>
-      </c>
-      <c r="R20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Mounted_Reiksguard_Secondary_Weaponry</v>
-      </c>
-      <c r="S20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Witch_Hunter_Secondary_Weaponry</v>
-      </c>
-      <c r="T20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Swordmaster_Secondary_Weaponry</v>
-      </c>
-      <c r="U20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>White_Lion_Secondary_Weaponry</v>
-      </c>
-      <c r="V20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Phoenix_Guard_Secondary_Weaponry</v>
-      </c>
-      <c r="W20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Archer_Secondary_Weaponry</v>
-      </c>
-      <c r="X20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Noble_Secondary_Weaponry</v>
-      </c>
-      <c r="Y20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Mounted_Noble_Secondary_Weaponry</v>
-      </c>
-      <c r="Z20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Silver_Helm_Secondary_Weaponry</v>
-      </c>
-      <c r="AA20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Shadow_Warrior_Secondary_Weaponry</v>
-      </c>
-      <c r="AB20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Sea_Guard_Secondary_Weaponry</v>
-      </c>
-      <c r="AC20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Orc_Boy_Secondary_Weaponry</v>
-      </c>
-      <c r="AD20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Big_Un_Secondary_Weaponry</v>
-      </c>
-      <c r="AE20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Black_Orc_Secondary_Weaponry</v>
-      </c>
-      <c r="AF20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Savage_orc_Secondary_Weaponry</v>
-      </c>
-      <c r="AG20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Savage_Orc_Big_Un_Secondary_Weaponry</v>
-      </c>
-      <c r="AH20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Orc_Big_Boss_Secondary_Weaponry</v>
-      </c>
-      <c r="AI20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Arrer_Boy_Secondary_Weaponry</v>
-      </c>
-      <c r="AJ20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Night_Goblin_Secondary_Weaponry</v>
-      </c>
-      <c r="AK20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Night_Goblin_Big_Boss_Secondary_Weaponry</v>
-      </c>
-      <c r="AL20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Mounted_Night_Goblin_Big_Boss_Secondary_Weaponry</v>
-      </c>
-      <c r="AM20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Troll_Secondary_Weaponry</v>
-      </c>
-      <c r="AN20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Peasant_Secondary_Weaponry</v>
-      </c>
-      <c r="AO20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Bowman_Secondary_Weaponry</v>
-      </c>
-      <c r="AP20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Brettonian_Foot_Knight_Secondary_Weaponry</v>
-      </c>
-      <c r="AQ20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Mounted_Brettonian_Knight_Secondary_Weaponry</v>
-      </c>
-      <c r="AR20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Brettonian_Knight_Secondary_Weaponry</v>
-      </c>
-      <c r="AS20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Duke_Secondary_Weaponry</v>
-      </c>
-      <c r="AT20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Skavenslave_Secondary_Weaponry</v>
-      </c>
-      <c r="AU20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Clan_Rat_Secondary_Weaponry</v>
-      </c>
-      <c r="AV20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Gutter_Runner_Secondary_Weaponry</v>
-      </c>
-      <c r="AW20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Storm_Vermin_Secondary_Weaponry</v>
-      </c>
-      <c r="AX20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Rat_Ogre_Secondary_Weaponry</v>
-      </c>
-      <c r="AY20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Claw_Leader_Secondary_Weaponry</v>
-      </c>
-      <c r="AZ20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Mounted_Claw_Leader_Secondary_Weaponry</v>
-      </c>
-      <c r="BA20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Dwarf_Warrior_Secondary_Weaponry</v>
-      </c>
-      <c r="BB20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Slayer_Secondary_Weaponry</v>
-      </c>
-      <c r="BC20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Ironbreaker_Secondary_Weaponry</v>
-      </c>
-      <c r="BD20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Hammerer_Secondary_Weaponry</v>
-      </c>
-      <c r="BE20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Dwarf_Captain_Secondary_Weaponry</v>
-      </c>
-      <c r="BF20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Mounted_Warrior_of_Chaos_Secondary_Weaponry</v>
-      </c>
-      <c r="BG20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Warrior_of_Chaos_Secondary_Weaponry</v>
-      </c>
-      <c r="BH20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Marauder_Secondary_Weaponry</v>
-      </c>
-      <c r="BI20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Mounted_Exalted_Champion_Secondary_Weaponry</v>
-      </c>
-      <c r="BJ20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Exalted_Champion_Secondary_Weaponry</v>
-      </c>
-      <c r="BK20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Dark_Elf_Warrior_Secondary_Weaponry</v>
-      </c>
-      <c r="BL20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Dreadknight_Secondary_Weaponry</v>
-      </c>
-      <c r="BM20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Witch_Elf_Secondary_Weaponry</v>
-      </c>
-      <c r="BN20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Dark_Elf_Corsair_Secondary_Weaponry</v>
-      </c>
-      <c r="BO20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Executioner_Secondary_Weaponry</v>
-      </c>
-      <c r="BP20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Shade_Secondary_Weaponry</v>
-      </c>
-      <c r="BQ20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Mounted_Dark_Elf_Master_Secondary_Weaponry</v>
-      </c>
-      <c r="BR20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Dark_Elf_Master_Secondary_Weaponry</v>
-      </c>
-      <c r="BS20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Cathayan_Captain_Secondary_Weaponry</v>
-      </c>
-      <c r="BT20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Mounted_Cathayan_Captain_Secondary_Weaponry</v>
-      </c>
-      <c r="BU20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Dragon_Cavalry_Secondary_Weaponry</v>
-      </c>
-      <c r="BV20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Imperial_Infantry_Secondary_Weaponry</v>
-      </c>
-      <c r="BW20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Levy-Infantry_Secondary_Weaponry</v>
-      </c>
-      <c r="BX20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Dragonblade_Secondary_Weaponry</v>
-      </c>
-      <c r="BY20" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>Imperial_Guard_Secondary_Weaponry</v>
-      </c>
-      <c r="BZ20" s="42" t="str">
-        <f t="shared" ref="BZ20:CE20" si="6">CONCATENATE(BZ$1,"_","Secondary_Weaponry")</f>
-        <v>Temple_Dog_Secondary_Weaponry</v>
-      </c>
-      <c r="CA20" s="42" t="str">
-        <f t="shared" si="6"/>
-        <v>Hatamoto_Secondary_Weaponry</v>
-      </c>
-      <c r="CB20" s="42" t="str">
-        <f t="shared" si="6"/>
-        <v>Mounted_Hatamoto_Secondary_Weaponry</v>
-      </c>
-      <c r="CC20" s="42" t="str">
-        <f t="shared" si="6"/>
-        <v>Samurai_Secondary_Weaponry</v>
-      </c>
-      <c r="CD20" s="42" t="str">
-        <f t="shared" si="6"/>
-        <v>Mounted_Samurai_Secondary_Weaponry</v>
-      </c>
-      <c r="CE20" s="42" t="str">
-        <f t="shared" si="6"/>
-        <v>Ashiguru_Secondary_Weaponry</v>
-      </c>
-      <c r="CF20" s="42" t="str">
-        <f>CONCATENATE(CF$1,"_","Secondary_Weaponry")</f>
-        <v>Nipponese_Leves_Secondary_Weaponry</v>
-      </c>
+    <row r="20" spans="10:90" ht="15" x14ac:dyDescent="0.25">
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
       <c r="CG20" s="34"/>
       <c r="CH20" s="34"/>
       <c r="CI20" s="34"/>
@@ -10106,204 +10813,6 @@
       <c r="CL20" s="34"/>
     </row>
     <row r="21" spans="10:90" ht="15" x14ac:dyDescent="0.25">
-      <c r="J21" t="s">
-        <v>170</v>
-      </c>
-      <c r="K21" t="s">
-        <v>170</v>
-      </c>
-      <c r="L21" t="s">
-        <v>168</v>
-      </c>
-      <c r="M21" t="s">
-        <v>170</v>
-      </c>
-      <c r="N21" t="s">
-        <v>168</v>
-      </c>
-      <c r="O21" s="43"/>
-      <c r="P21" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>168</v>
-      </c>
-      <c r="R21" t="s">
-        <v>168</v>
-      </c>
-      <c r="S21" t="s">
-        <v>129</v>
-      </c>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="X21" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>168</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>327</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>168</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>168</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>168</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>168</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>168</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>168</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>168</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>168</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>168</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>168</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>168</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>168</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>168</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>168</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>168</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>168</v>
-      </c>
-      <c r="AV21" t="s">
-        <v>168</v>
-      </c>
-      <c r="AW21" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX21" t="s">
-        <v>133</v>
-      </c>
-      <c r="AY21" t="s">
-        <v>168</v>
-      </c>
-      <c r="AZ21" t="s">
-        <v>168</v>
-      </c>
-      <c r="BA21" t="s">
-        <v>168</v>
-      </c>
-      <c r="BB21" t="s">
-        <v>129</v>
-      </c>
-      <c r="BC21" t="s">
-        <v>168</v>
-      </c>
-      <c r="BD21" t="s">
-        <v>168</v>
-      </c>
-      <c r="BE21" t="s">
-        <v>168</v>
-      </c>
-      <c r="BF21" t="s">
-        <v>168</v>
-      </c>
-      <c r="BG21" t="s">
-        <v>168</v>
-      </c>
-      <c r="BH21" t="s">
-        <v>168</v>
-      </c>
-      <c r="BI21" t="s">
-        <v>168</v>
-      </c>
-      <c r="BJ21" t="s">
-        <v>168</v>
-      </c>
-      <c r="BK21" t="s">
-        <v>168</v>
-      </c>
-      <c r="BL21" t="s">
-        <v>168</v>
-      </c>
-      <c r="BM21" t="s">
-        <v>327</v>
-      </c>
-      <c r="BN21" t="s">
-        <v>129</v>
-      </c>
-      <c r="BP21" t="s">
-        <v>327</v>
-      </c>
-      <c r="BQ21" t="s">
-        <v>168</v>
-      </c>
-      <c r="BR21" t="s">
-        <v>168</v>
-      </c>
-      <c r="BS21" t="s">
-        <v>168</v>
-      </c>
-      <c r="BT21" t="s">
-        <v>168</v>
-      </c>
-      <c r="BU21" t="s">
-        <v>168</v>
-      </c>
-      <c r="BV21" t="s">
-        <v>168</v>
-      </c>
-      <c r="BW21" t="s">
-        <v>168</v>
-      </c>
-      <c r="CA21" t="s">
-        <v>327</v>
-      </c>
-      <c r="CB21" t="s">
-        <v>327</v>
-      </c>
-      <c r="CC21" t="s">
-        <v>169</v>
-      </c>
-      <c r="CD21" t="s">
-        <v>327</v>
-      </c>
-      <c r="CE21" t="s">
-        <v>169</v>
-      </c>
-      <c r="CF21" t="s">
-        <v>327</v>
-      </c>
       <c r="CG21" s="34"/>
       <c r="CH21" s="34"/>
       <c r="CI21" s="34"/>
@@ -10312,177 +10821,6 @@
       <c r="CL21" s="34"/>
     </row>
     <row r="22" spans="10:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J22" t="s">
-        <v>168</v>
-      </c>
-      <c r="K22" t="s">
-        <v>168</v>
-      </c>
-      <c r="L22" t="s">
-        <v>129</v>
-      </c>
-      <c r="M22" t="s">
-        <v>168</v>
-      </c>
-      <c r="N22" t="s">
-        <v>327</v>
-      </c>
-      <c r="P22" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>129</v>
-      </c>
-      <c r="R22" t="s">
-        <v>129</v>
-      </c>
-      <c r="S22" t="s">
-        <v>327</v>
-      </c>
-      <c r="X22" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>327</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>327</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>327</v>
-      </c>
-      <c r="AU22" t="s">
-        <v>327</v>
-      </c>
-      <c r="AV22" t="s">
-        <v>327</v>
-      </c>
-      <c r="AW22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AY22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AZ22" t="s">
-        <v>129</v>
-      </c>
-      <c r="BA22" t="s">
-        <v>129</v>
-      </c>
-      <c r="BB22" t="s">
-        <v>327</v>
-      </c>
-      <c r="BC22" t="s">
-        <v>129</v>
-      </c>
-      <c r="BE22" t="s">
-        <v>129</v>
-      </c>
-      <c r="BF22" t="s">
-        <v>129</v>
-      </c>
-      <c r="BG22" t="s">
-        <v>129</v>
-      </c>
-      <c r="BH22" t="s">
-        <v>129</v>
-      </c>
-      <c r="BI22" t="s">
-        <v>129</v>
-      </c>
-      <c r="BJ22" t="s">
-        <v>129</v>
-      </c>
-      <c r="BK22" t="s">
-        <v>327</v>
-      </c>
-      <c r="BL22" t="s">
-        <v>327</v>
-      </c>
-      <c r="BN22" t="s">
-        <v>327</v>
-      </c>
-      <c r="BP22" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ22" t="s">
-        <v>327</v>
-      </c>
-      <c r="BR22" t="s">
-        <v>327</v>
-      </c>
-      <c r="BS22" t="s">
-        <v>129</v>
-      </c>
-      <c r="BT22" t="s">
-        <v>129</v>
-      </c>
-      <c r="BU22" t="s">
-        <v>129</v>
-      </c>
-      <c r="BV22" t="s">
-        <v>129</v>
-      </c>
-      <c r="BW22" t="s">
-        <v>129</v>
-      </c>
-      <c r="CC22" t="s">
-        <v>327</v>
-      </c>
-      <c r="CE22" t="s">
-        <v>327</v>
-      </c>
       <c r="CG22" s="35" t="str">
         <f t="shared" ref="CG22:CL22" si="7">CONCATENATE(CG$1,"_","Ranged_Weaponry")</f>
         <v>Jarl_Ranged_Weaponry</v>
@@ -10509,165 +10847,6 @@
       </c>
     </row>
     <row r="23" spans="10:90" ht="15" x14ac:dyDescent="0.25">
-      <c r="J23" t="s">
-        <v>128</v>
-      </c>
-      <c r="K23" t="s">
-        <v>129</v>
-      </c>
-      <c r="L23" t="s">
-        <v>327</v>
-      </c>
-      <c r="M23" t="s">
-        <v>129</v>
-      </c>
-      <c r="N23" t="s">
-        <v>128</v>
-      </c>
-      <c r="P23" s="1"/>
-      <c r="Q23" t="s">
-        <v>327</v>
-      </c>
-      <c r="R23" t="s">
-        <v>327</v>
-      </c>
-      <c r="S23" t="s">
-        <v>128</v>
-      </c>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="X23" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>327</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>327</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>327</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>327</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>327</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>327</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>327</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>327</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>327</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>327</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>327</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>327</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>327</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>327</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>327</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>327</v>
-      </c>
-      <c r="AU23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AV23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AW23" t="s">
-        <v>327</v>
-      </c>
-      <c r="AY23" t="s">
-        <v>327</v>
-      </c>
-      <c r="AZ23" t="s">
-        <v>327</v>
-      </c>
-      <c r="BA23" t="s">
-        <v>327</v>
-      </c>
-      <c r="BB23" t="s">
-        <v>136</v>
-      </c>
-      <c r="BC23" t="s">
-        <v>327</v>
-      </c>
-      <c r="BE23" t="s">
-        <v>327</v>
-      </c>
-      <c r="BF23" t="s">
-        <v>327</v>
-      </c>
-      <c r="BG23" t="s">
-        <v>327</v>
-      </c>
-      <c r="BH23" t="s">
-        <v>327</v>
-      </c>
-      <c r="BI23" t="s">
-        <v>327</v>
-      </c>
-      <c r="BJ23" t="s">
-        <v>327</v>
-      </c>
-      <c r="BK23" t="s">
-        <v>128</v>
-      </c>
-      <c r="BL23" t="s">
-        <v>136</v>
-      </c>
-      <c r="BN23" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP23" t="s">
-        <v>128</v>
-      </c>
-      <c r="BQ23" t="s">
-        <v>136</v>
-      </c>
-      <c r="BR23" t="s">
-        <v>136</v>
-      </c>
-      <c r="BS23" t="s">
-        <v>327</v>
-      </c>
-      <c r="BT23" t="s">
-        <v>327</v>
-      </c>
-      <c r="BU23" t="s">
-        <v>327</v>
-      </c>
-      <c r="BV23" t="s">
-        <v>327</v>
-      </c>
-      <c r="BW23" t="s">
-        <v>327</v>
-      </c>
       <c r="CG23" s="34" t="s">
         <v>147</v>
       </c>
@@ -10686,129 +10865,6 @@
       </c>
     </row>
     <row r="24" spans="10:90" ht="15" x14ac:dyDescent="0.25">
-      <c r="J24" t="s">
-        <v>129</v>
-      </c>
-      <c r="K24" t="s">
-        <v>327</v>
-      </c>
-      <c r="L24" t="s">
-        <v>136</v>
-      </c>
-      <c r="M24" t="s">
-        <v>327</v>
-      </c>
-      <c r="P24" s="1"/>
-      <c r="Q24" t="s">
-        <v>136</v>
-      </c>
-      <c r="R24" t="s">
-        <v>136</v>
-      </c>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="AC24" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>136</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>136</v>
-      </c>
-      <c r="AR24" t="s">
-        <v>136</v>
-      </c>
-      <c r="AS24" t="s">
-        <v>136</v>
-      </c>
-      <c r="AW24" t="s">
-        <v>136</v>
-      </c>
-      <c r="AY24" t="s">
-        <v>136</v>
-      </c>
-      <c r="AZ24" t="s">
-        <v>136</v>
-      </c>
-      <c r="BA24" t="s">
-        <v>136</v>
-      </c>
-      <c r="BC24" t="s">
-        <v>136</v>
-      </c>
-      <c r="BE24" t="s">
-        <v>136</v>
-      </c>
-      <c r="BF24" t="s">
-        <v>136</v>
-      </c>
-      <c r="BG24" t="s">
-        <v>136</v>
-      </c>
-      <c r="BH24" t="s">
-        <v>136</v>
-      </c>
-      <c r="BI24" t="s">
-        <v>136</v>
-      </c>
-      <c r="BJ24" t="s">
-        <v>136</v>
-      </c>
-      <c r="BL24" t="s">
-        <v>128</v>
-      </c>
-      <c r="BN24" t="s">
-        <v>128</v>
-      </c>
-      <c r="BQ24" t="s">
-        <v>128</v>
-      </c>
-      <c r="BR24" t="s">
-        <v>128</v>
-      </c>
-      <c r="BS24" t="s">
-        <v>136</v>
-      </c>
-      <c r="BT24" t="s">
-        <v>136</v>
-      </c>
-      <c r="BU24" t="s">
-        <v>136</v>
-      </c>
-      <c r="BV24" t="s">
-        <v>136</v>
-      </c>
-      <c r="BW24" t="s">
-        <v>128</v>
-      </c>
       <c r="CG24" s="34"/>
       <c r="CH24" s="34"/>
       <c r="CI24" s="34" t="s">
@@ -10821,95 +10877,6 @@
       </c>
     </row>
     <row r="25" spans="10:90" ht="15" x14ac:dyDescent="0.25">
-      <c r="J25" t="s">
-        <v>136</v>
-      </c>
-      <c r="K25" s="1"/>
-      <c r="L25" t="s">
-        <v>128</v>
-      </c>
-      <c r="M25" t="s">
-        <v>136</v>
-      </c>
-      <c r="P25" s="1"/>
-      <c r="Q25" t="s">
-        <v>128</v>
-      </c>
-      <c r="R25" t="s">
-        <v>128</v>
-      </c>
-      <c r="S25" s="1"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="AC25" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>128</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR25" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS25" t="s">
-        <v>128</v>
-      </c>
-      <c r="AW25" t="s">
-        <v>128</v>
-      </c>
-      <c r="AY25" t="s">
-        <v>128</v>
-      </c>
-      <c r="AZ25" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE25" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF25" t="s">
-        <v>128</v>
-      </c>
-      <c r="BG25" t="s">
-        <v>128</v>
-      </c>
-      <c r="BH25" t="s">
-        <v>128</v>
-      </c>
-      <c r="BI25" t="s">
-        <v>128</v>
-      </c>
-      <c r="BJ25" t="s">
-        <v>128</v>
-      </c>
-      <c r="BS25" t="s">
-        <v>128</v>
-      </c>
-      <c r="BT25" t="s">
-        <v>128</v>
-      </c>
-      <c r="BU25" t="s">
-        <v>128</v>
-      </c>
-      <c r="BV25" t="s">
-        <v>128</v>
-      </c>
       <c r="CG25" s="34"/>
       <c r="CH25" s="34"/>
       <c r="CI25" s="34"/>
@@ -10918,20 +10885,6 @@
       <c r="CL25" s="34"/>
     </row>
     <row r="26" spans="10:90" ht="15" x14ac:dyDescent="0.25">
-      <c r="J26" t="s">
-        <v>327</v>
-      </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" t="s">
-        <v>128</v>
-      </c>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
       <c r="CG26" s="34"/>
       <c r="CH26" s="34"/>
       <c r="CI26" s="34"/>
@@ -10940,15 +10893,6 @@
       <c r="CL26" s="34"/>
     </row>
     <row r="27" spans="10:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
       <c r="CG27" s="35" t="str">
         <f t="shared" ref="CG27:CL27" si="8">CONCATENATE(CG$1,"_","Armour")</f>
         <v>Jarl_Armour</v>
@@ -13501,7 +13445,7 @@
         <v>Empire_State_Troop_Mounts</v>
       </c>
       <c r="K60" s="42" t="str">
-        <f t="shared" ref="K60:CE60" si="21">CONCATENATE(K$1,"_","Mounts")</f>
+        <f t="shared" ref="K60:CF60" si="21">CONCATENATE(K$1,"_","Mounts")</f>
         <v>Empire_State_Troop_Skirmisher_Mounts</v>
       </c>
       <c r="L60" s="42" t="str">
@@ -13792,7 +13736,7 @@
         <f t="shared" si="21"/>
         <v>Ashiguru_Mounts</v>
       </c>
-      <c r="CG60" s="42" t="str">
+      <c r="CF60" s="42" t="str">
         <f>CONCATENATE(CF$1,"_","Mounts")</f>
         <v>Nipponese_Leves_Mounts</v>
       </c>
@@ -13944,7 +13888,7 @@
     <row r="64" spans="1:90" x14ac:dyDescent="0.2">
       <c r="L64" s="1"/>
     </row>
-    <row r="65" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:84" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="42"/>
       <c r="B65" s="42"/>
       <c r="C65" s="42"/>
@@ -14223,7 +14167,7 @@
         <v>Dragonblade_Armour</v>
       </c>
       <c r="BY65" s="42" t="str">
-        <f t="shared" ref="BY65:CE65" si="23">CONCATENATE(BY$1,"_","Armour")</f>
+        <f t="shared" ref="BY65:CF65" si="23">CONCATENATE(BY$1,"_","Armour")</f>
         <v>Imperial_Guard_Armour</v>
       </c>
       <c r="BZ65" s="42" t="str">
@@ -14250,12 +14194,12 @@
         <f t="shared" si="23"/>
         <v>Ashiguru_Armour</v>
       </c>
-      <c r="CG65" s="42" t="str">
+      <c r="CF65" s="42" t="str">
         <f>CONCATENATE(CF$1,"_","Armour")</f>
         <v>Nipponese_Leves_Armour</v>
       </c>
     </row>
-    <row r="66" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:84" x14ac:dyDescent="0.2">
       <c r="J66" t="s">
         <v>341</v>
       </c>
@@ -14427,11 +14371,11 @@
       <c r="CE66" t="s">
         <v>233</v>
       </c>
-      <c r="CG66" t="s">
+      <c r="CF66" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="67" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:84" x14ac:dyDescent="0.2">
       <c r="J67" t="s">
         <v>233</v>
       </c>
@@ -14550,7 +14494,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="68" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:84" x14ac:dyDescent="0.2">
       <c r="J68" t="s">
         <v>346</v>
       </c>
@@ -14663,7 +14607,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="69" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:84" x14ac:dyDescent="0.2">
       <c r="M69" t="s">
         <v>346</v>
       </c>
@@ -14746,7 +14690,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="70" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:84" x14ac:dyDescent="0.2">
       <c r="M70" t="s">
         <v>330</v>
       </c>
@@ -14796,7 +14740,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="71" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:84" x14ac:dyDescent="0.2">
       <c r="M71" t="s">
         <v>348</v>
       </c>
@@ -14804,12 +14748,12 @@
         <v>330</v>
       </c>
     </row>
-    <row r="72" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:84" x14ac:dyDescent="0.2">
       <c r="BC72" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="74" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:84" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="42"/>
       <c r="B74" s="42"/>
       <c r="C74" s="42"/>
@@ -15115,12 +15059,12 @@
         <f>CONCATENATE(CE$1,"_","Helmet")</f>
         <v>Ashiguru_Helmet</v>
       </c>
-      <c r="CG74" s="42" t="str">
+      <c r="CF74" s="42" t="str">
         <f>CONCATENATE(CF$1,"_","Helmet")</f>
         <v>Nipponese_Leves_Helmet</v>
       </c>
     </row>
-    <row r="75" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:84" x14ac:dyDescent="0.2">
       <c r="J75" t="s">
         <v>238</v>
       </c>
@@ -15280,11 +15224,11 @@
       <c r="CE75" t="s">
         <v>238</v>
       </c>
-      <c r="CG75" t="s">
+      <c r="CF75" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="78" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:84" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J78" s="42" t="str">
         <f>CONCATENATE(J$1,"_","Mounts")</f>
         <v>Empire_State_Troop_Mounts</v>
@@ -15546,7 +15490,7 @@
         <v>Imperial_Infantry_Mounts</v>
       </c>
       <c r="BW78" s="42" t="str">
-        <f t="shared" ref="BW78:CE78" si="27">CONCATENATE(BW$1,"_","Mounts")</f>
+        <f t="shared" ref="BW78:CF78" si="27">CONCATENATE(BW$1,"_","Mounts")</f>
         <v>Levy-Infantry_Mounts</v>
       </c>
       <c r="BX78" s="42" t="str">
@@ -15581,12 +15525,12 @@
         <f t="shared" si="27"/>
         <v>Ashiguru_Mounts</v>
       </c>
-      <c r="CG78" s="42" t="str">
+      <c r="CF78" s="42" t="str">
         <f>CONCATENATE(CF$1,"_","Mounts")</f>
         <v>Nipponese_Leves_Mounts</v>
       </c>
     </row>
-    <row r="79" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:84" x14ac:dyDescent="0.2">
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1" t="s">
@@ -15680,7 +15624,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="80" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:84" x14ac:dyDescent="0.2">
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
@@ -20595,7 +20539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AMC49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
